--- a/Sudan-master/figs/species_catch_table.xlsx
+++ b/Sudan-master/figs/species_catch_table.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eriko/Documents/GitHub/Sudan2019/Sudan-master/figs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E79773A5-7C95-D447-9319-8110200B2190}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A46FA6-DA3A-154C-80AD-1771933EC549}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="1960" windowWidth="26840" windowHeight="15200" activeTab="1"/>
+    <workbookView xWindow="1580" yWindow="1900" windowWidth="26840" windowHeight="15200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="species_catch_table" sheetId="1" r:id="rId1"/>
@@ -660,7 +660,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1178,16 +1178,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1542,7 +1542,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5970,19 +5970,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="R127" sqref="R127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.5" style="7" customWidth="1"/>
-    <col min="4" max="4" width="24.1640625" style="7" customWidth="1"/>
-    <col min="5" max="11" width="7.33203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="5" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" style="5" customWidth="1"/>
+    <col min="5" max="11" width="7.33203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
@@ -5998,52 +5998,52 @@
       <c r="E1" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5" t="s">
+      <c r="G1" s="8"/>
+      <c r="H1" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="4" t="s">
+      <c r="I1" s="9"/>
+      <c r="J1" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="K1" s="4"/>
+      <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="7" t="s">
         <v>207</v>
       </c>
     </row>
@@ -6051,31 +6051,31 @@
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="5">
         <v>89</v>
       </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7">
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
         <v>10</v>
       </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7">
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
         <v>24</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="5">
         <v>6</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="5">
         <v>49</v>
       </c>
       <c r="M3">
@@ -6102,28 +6102,28 @@
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="5">
         <v>12</v>
       </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
         <v>12</v>
       </c>
-      <c r="J4" s="7">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7">
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
         <v>0</v>
       </c>
       <c r="M4">
@@ -6150,28 +6150,28 @@
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="5">
         <v>73</v>
       </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
         <v>18</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="5">
         <v>18</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="5">
         <v>37</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="5">
         <v>0</v>
       </c>
       <c r="M5">
@@ -6198,28 +6198,28 @@
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E6" s="7">
-        <v>1</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7">
-        <v>1</v>
-      </c>
-      <c r="K6" s="7">
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>1</v>
+      </c>
+      <c r="K6" s="5">
         <v>0</v>
       </c>
       <c r="M6">
@@ -6235,31 +6235,31 @@
       <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="6">
         <v>5</v>
       </c>
-      <c r="F7" s="8">
-        <v>0</v>
-      </c>
-      <c r="G7" s="8">
-        <v>0</v>
-      </c>
-      <c r="H7" s="8">
-        <v>0</v>
-      </c>
-      <c r="I7" s="8">
-        <v>0</v>
-      </c>
-      <c r="J7" s="8">
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
         <v>5</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="6">
         <v>0</v>
       </c>
       <c r="M7">
@@ -6275,31 +6275,31 @@
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="5">
         <v>6</v>
       </c>
-      <c r="F8" s="7">
-        <v>0</v>
-      </c>
-      <c r="G8" s="7">
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
         <v>6</v>
       </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7">
-        <v>0</v>
-      </c>
-      <c r="K8" s="7">
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
         <v>0</v>
       </c>
       <c r="M8">
@@ -6318,28 +6318,28 @@
       <c r="A9" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="5">
         <v>3</v>
       </c>
-      <c r="F9" s="7">
-        <v>0</v>
-      </c>
-      <c r="G9" s="7">
-        <v>0</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7">
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
         <v>2</v>
       </c>
-      <c r="J9" s="7">
-        <v>1</v>
-      </c>
-      <c r="K9" s="7">
+      <c r="J9" s="5">
+        <v>1</v>
+      </c>
+      <c r="K9" s="5">
         <v>0</v>
       </c>
       <c r="M9">
@@ -6395,28 +6395,28 @@
       <c r="A11" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="7">
-        <v>1</v>
-      </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
-      <c r="G11" s="7">
-        <v>0</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1</v>
-      </c>
-      <c r="J11" s="7">
-        <v>0</v>
-      </c>
-      <c r="K11" s="7">
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
         <v>0</v>
       </c>
       <c r="M11">
@@ -6432,28 +6432,28 @@
       <c r="A12" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="E12" s="7">
-        <v>1</v>
-      </c>
-      <c r="F12" s="7">
-        <v>0</v>
-      </c>
-      <c r="G12" s="7">
-        <v>1</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7">
-        <v>0</v>
-      </c>
-      <c r="K12" s="7">
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5">
         <v>0</v>
       </c>
       <c r="M12">
@@ -6469,31 +6469,31 @@
       <c r="A13" t="s">
         <v>192</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="E13" s="8">
-        <v>1</v>
-      </c>
-      <c r="F13" s="8">
-        <v>0</v>
-      </c>
-      <c r="G13" s="8">
-        <v>0</v>
-      </c>
-      <c r="H13" s="8">
-        <v>0</v>
-      </c>
-      <c r="I13" s="8">
-        <v>0</v>
-      </c>
-      <c r="J13" s="8">
-        <v>1</v>
-      </c>
-      <c r="K13" s="8">
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6">
+        <v>1</v>
+      </c>
+      <c r="K13" s="6">
         <v>0</v>
       </c>
       <c r="M13">
@@ -6509,31 +6509,31 @@
       <c r="A14" t="s">
         <v>182</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="5">
         <v>6</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="5">
         <v>2</v>
       </c>
-      <c r="G14" s="7">
-        <v>0</v>
-      </c>
-      <c r="H14" s="7">
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
         <v>4</v>
       </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7">
-        <v>0</v>
-      </c>
-      <c r="K14" s="7">
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5">
         <v>0</v>
       </c>
       <c r="M14">
@@ -6549,31 +6549,31 @@
       <c r="A15" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="8">
-        <v>1</v>
-      </c>
-      <c r="F15" s="8">
-        <v>0</v>
-      </c>
-      <c r="G15" s="8">
-        <v>0</v>
-      </c>
-      <c r="H15" s="8">
-        <v>0</v>
-      </c>
-      <c r="I15" s="8">
-        <v>0</v>
-      </c>
-      <c r="J15" s="8">
-        <v>1</v>
-      </c>
-      <c r="K15" s="8">
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0</v>
+      </c>
+      <c r="J15" s="6">
+        <v>1</v>
+      </c>
+      <c r="K15" s="6">
         <v>0</v>
       </c>
       <c r="M15">
@@ -6589,31 +6589,31 @@
       <c r="A16" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="5">
         <v>15</v>
       </c>
-      <c r="F16" s="7">
-        <v>0</v>
-      </c>
-      <c r="G16" s="7">
-        <v>0</v>
-      </c>
-      <c r="H16" s="7">
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
         <v>15</v>
       </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7">
-        <v>0</v>
-      </c>
-      <c r="K16" s="7">
+      <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0</v>
+      </c>
+      <c r="K16" s="5">
         <v>0</v>
       </c>
       <c r="M16">
@@ -6629,28 +6629,28 @@
       <c r="A17" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="7">
-        <v>1</v>
-      </c>
-      <c r="F17" s="7">
-        <v>0</v>
-      </c>
-      <c r="G17" s="7">
-        <v>0</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7">
-        <v>1</v>
-      </c>
-      <c r="K17" s="7">
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0</v>
+      </c>
+      <c r="J17" s="5">
+        <v>1</v>
+      </c>
+      <c r="K17" s="5">
         <v>0</v>
       </c>
       <c r="M17">
@@ -6706,28 +6706,28 @@
       <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="5">
         <v>4</v>
       </c>
-      <c r="F19" s="7">
-        <v>0</v>
-      </c>
-      <c r="G19" s="7">
-        <v>0</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7">
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0</v>
+      </c>
+      <c r="J19" s="5">
         <v>4</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="5">
         <v>0</v>
       </c>
       <c r="M19">
@@ -6743,28 +6743,28 @@
       <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="5">
         <v>4</v>
       </c>
-      <c r="F20" s="7">
-        <v>0</v>
-      </c>
-      <c r="G20" s="7">
-        <v>0</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7">
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0</v>
+      </c>
+      <c r="J20" s="5">
         <v>4</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="5">
         <v>0</v>
       </c>
       <c r="M20">
@@ -6780,28 +6780,28 @@
       <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="5">
         <v>83</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="5">
         <v>13</v>
       </c>
-      <c r="G21" s="7">
-        <v>1</v>
-      </c>
-      <c r="H21" s="7">
+      <c r="G21" s="5">
+        <v>1</v>
+      </c>
+      <c r="H21" s="5">
         <v>6</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="5">
         <v>14</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="5">
         <v>49</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21" s="5">
         <v>0</v>
       </c>
       <c r="M21">
@@ -6817,28 +6817,28 @@
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="5">
         <v>8</v>
       </c>
-      <c r="F22" s="7">
-        <v>0</v>
-      </c>
-      <c r="G22" s="7">
-        <v>0</v>
-      </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>1</v>
-      </c>
-      <c r="J22" s="7">
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+      <c r="I22" s="5">
+        <v>1</v>
+      </c>
+      <c r="J22" s="5">
         <v>7</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="5">
         <v>0</v>
       </c>
       <c r="M22">
@@ -6854,28 +6854,28 @@
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="5">
         <v>16</v>
       </c>
-      <c r="F23" s="7">
-        <v>0</v>
-      </c>
-      <c r="G23" s="7">
-        <v>0</v>
-      </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7">
-        <v>0</v>
-      </c>
-      <c r="J23" s="7">
+      <c r="F23" s="5">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0</v>
+      </c>
+      <c r="J23" s="5">
         <v>16</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23" s="5">
         <v>0</v>
       </c>
       <c r="M23">
@@ -6891,28 +6891,28 @@
       <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="7">
-        <v>1</v>
-      </c>
-      <c r="F24" s="7">
-        <v>0</v>
-      </c>
-      <c r="G24" s="7">
-        <v>0</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7">
-        <v>1</v>
-      </c>
-      <c r="K24" s="7">
+      <c r="E24" s="5">
+        <v>1</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0</v>
+      </c>
+      <c r="I24" s="5">
+        <v>0</v>
+      </c>
+      <c r="J24" s="5">
+        <v>1</v>
+      </c>
+      <c r="K24" s="5">
         <v>0</v>
       </c>
       <c r="M24">
@@ -6928,28 +6928,28 @@
       <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="5">
         <v>9</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="5">
         <v>2</v>
       </c>
-      <c r="G25" s="7">
-        <v>0</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1</v>
-      </c>
-      <c r="J25" s="7">
+      <c r="G25" s="5">
+        <v>0</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0</v>
+      </c>
+      <c r="I25" s="5">
+        <v>1</v>
+      </c>
+      <c r="J25" s="5">
         <v>6</v>
       </c>
-      <c r="K25" s="7">
+      <c r="K25" s="5">
         <v>0</v>
       </c>
       <c r="M25">
@@ -6965,28 +6965,28 @@
       <c r="A26" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="5">
         <v>83</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="5">
         <v>16</v>
       </c>
-      <c r="G26" s="7">
-        <v>0</v>
-      </c>
-      <c r="H26" s="7">
+      <c r="G26" s="5">
+        <v>0</v>
+      </c>
+      <c r="H26" s="5">
         <v>22</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="5">
         <v>2</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="5">
         <v>43</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K26" s="5">
         <v>0</v>
       </c>
       <c r="M26">
@@ -7002,28 +7002,28 @@
       <c r="A27" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="5">
         <v>4</v>
       </c>
-      <c r="F27" s="7">
-        <v>0</v>
-      </c>
-      <c r="G27" s="7">
-        <v>0</v>
-      </c>
-      <c r="H27" s="7">
-        <v>0</v>
-      </c>
-      <c r="I27" s="7">
-        <v>0</v>
-      </c>
-      <c r="J27" s="7">
+      <c r="F27" s="5">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0</v>
+      </c>
+      <c r="I27" s="5">
+        <v>0</v>
+      </c>
+      <c r="J27" s="5">
         <v>4</v>
       </c>
-      <c r="K27" s="7">
+      <c r="K27" s="5">
         <v>0</v>
       </c>
       <c r="M27">
@@ -7039,28 +7039,28 @@
       <c r="A28" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="5">
         <v>2</v>
       </c>
-      <c r="F28" s="7">
-        <v>0</v>
-      </c>
-      <c r="G28" s="7">
-        <v>0</v>
-      </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7">
-        <v>1</v>
-      </c>
-      <c r="J28" s="7">
-        <v>1</v>
-      </c>
-      <c r="K28" s="7">
+      <c r="F28" s="5">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0</v>
+      </c>
+      <c r="H28" s="5">
+        <v>0</v>
+      </c>
+      <c r="I28" s="5">
+        <v>1</v>
+      </c>
+      <c r="J28" s="5">
+        <v>1</v>
+      </c>
+      <c r="K28" s="5">
         <v>0</v>
       </c>
       <c r="M28">
@@ -7076,28 +7076,28 @@
       <c r="A29" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="7">
-        <v>1</v>
-      </c>
-      <c r="F29" s="7">
-        <v>0</v>
-      </c>
-      <c r="G29" s="7">
-        <v>0</v>
-      </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
-      <c r="I29" s="7">
-        <v>0</v>
-      </c>
-      <c r="J29" s="7">
-        <v>1</v>
-      </c>
-      <c r="K29" s="7">
+      <c r="E29" s="5">
+        <v>1</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0</v>
+      </c>
+      <c r="H29" s="5">
+        <v>0</v>
+      </c>
+      <c r="I29" s="5">
+        <v>0</v>
+      </c>
+      <c r="J29" s="5">
+        <v>1</v>
+      </c>
+      <c r="K29" s="5">
         <v>0</v>
       </c>
       <c r="M29">
@@ -7113,28 +7113,28 @@
       <c r="A30" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="5">
         <v>6</v>
       </c>
-      <c r="F30" s="7">
-        <v>0</v>
-      </c>
-      <c r="G30" s="7">
-        <v>0</v>
-      </c>
-      <c r="H30" s="7">
-        <v>0</v>
-      </c>
-      <c r="I30" s="7">
+      <c r="F30" s="5">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0</v>
+      </c>
+      <c r="I30" s="5">
         <v>6</v>
       </c>
-      <c r="J30" s="7">
-        <v>0</v>
-      </c>
-      <c r="K30" s="7">
+      <c r="J30" s="5">
+        <v>0</v>
+      </c>
+      <c r="K30" s="5">
         <v>0</v>
       </c>
       <c r="M30">
@@ -7150,28 +7150,28 @@
       <c r="A31" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E31" s="7">
-        <v>1</v>
-      </c>
-      <c r="F31" s="7">
-        <v>0</v>
-      </c>
-      <c r="G31" s="7">
-        <v>0</v>
-      </c>
-      <c r="H31" s="7">
-        <v>1</v>
-      </c>
-      <c r="I31" s="7">
-        <v>0</v>
-      </c>
-      <c r="J31" s="7">
-        <v>0</v>
-      </c>
-      <c r="K31" s="7">
+      <c r="E31" s="5">
+        <v>1</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0</v>
+      </c>
+      <c r="H31" s="5">
+        <v>1</v>
+      </c>
+      <c r="I31" s="5">
+        <v>0</v>
+      </c>
+      <c r="J31" s="5">
+        <v>0</v>
+      </c>
+      <c r="K31" s="5">
         <v>0</v>
       </c>
       <c r="M31">
@@ -7187,28 +7187,28 @@
       <c r="A32" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="5">
         <v>158</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="5">
         <v>15</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="5">
         <v>20</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="5">
         <v>60</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="5">
         <v>18</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J32" s="5">
         <v>45</v>
       </c>
-      <c r="K32" s="7">
+      <c r="K32" s="5">
         <v>0</v>
       </c>
       <c r="M32">
@@ -7224,28 +7224,28 @@
       <c r="A33" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="5">
         <v>78</v>
       </c>
-      <c r="F33" s="7">
-        <v>0</v>
-      </c>
-      <c r="G33" s="7">
-        <v>0</v>
-      </c>
-      <c r="H33" s="7">
+      <c r="F33" s="5">
+        <v>0</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0</v>
+      </c>
+      <c r="H33" s="5">
         <v>4</v>
       </c>
-      <c r="I33" s="7">
-        <v>0</v>
-      </c>
-      <c r="J33" s="7">
+      <c r="I33" s="5">
+        <v>0</v>
+      </c>
+      <c r="J33" s="5">
         <v>74</v>
       </c>
-      <c r="K33" s="7">
+      <c r="K33" s="5">
         <v>0</v>
       </c>
       <c r="M33">
@@ -7301,28 +7301,28 @@
       <c r="A35" t="s">
         <v>52</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="E35" s="7">
-        <v>1</v>
-      </c>
-      <c r="F35" s="7">
-        <v>1</v>
-      </c>
-      <c r="G35" s="7">
-        <v>0</v>
-      </c>
-      <c r="H35" s="7">
-        <v>0</v>
-      </c>
-      <c r="I35" s="7">
-        <v>0</v>
-      </c>
-      <c r="J35" s="7">
-        <v>0</v>
-      </c>
-      <c r="K35" s="7">
+      <c r="E35" s="5">
+        <v>1</v>
+      </c>
+      <c r="F35" s="5">
+        <v>1</v>
+      </c>
+      <c r="G35" s="5">
+        <v>0</v>
+      </c>
+      <c r="H35" s="5">
+        <v>0</v>
+      </c>
+      <c r="I35" s="5">
+        <v>0</v>
+      </c>
+      <c r="J35" s="5">
+        <v>0</v>
+      </c>
+      <c r="K35" s="5">
         <v>0</v>
       </c>
       <c r="M35">
@@ -7338,28 +7338,28 @@
       <c r="A36" t="s">
         <v>52</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="5">
         <v>13</v>
       </c>
-      <c r="F36" s="7">
-        <v>0</v>
-      </c>
-      <c r="G36" s="7">
+      <c r="F36" s="5">
+        <v>0</v>
+      </c>
+      <c r="G36" s="5">
         <v>3</v>
       </c>
-      <c r="H36" s="7">
-        <v>0</v>
-      </c>
-      <c r="I36" s="7">
+      <c r="H36" s="5">
+        <v>0</v>
+      </c>
+      <c r="I36" s="5">
         <v>10</v>
       </c>
-      <c r="J36" s="7">
-        <v>0</v>
-      </c>
-      <c r="K36" s="7">
+      <c r="J36" s="5">
+        <v>0</v>
+      </c>
+      <c r="K36" s="5">
         <v>0</v>
       </c>
       <c r="M36">
@@ -7375,28 +7375,28 @@
       <c r="A37" t="s">
         <v>52</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="5">
         <v>14</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="5">
         <v>9</v>
       </c>
-      <c r="G37" s="7">
-        <v>0</v>
-      </c>
-      <c r="H37" s="7">
-        <v>0</v>
-      </c>
-      <c r="I37" s="7">
-        <v>0</v>
-      </c>
-      <c r="J37" s="7">
+      <c r="G37" s="5">
+        <v>0</v>
+      </c>
+      <c r="H37" s="5">
+        <v>0</v>
+      </c>
+      <c r="I37" s="5">
+        <v>0</v>
+      </c>
+      <c r="J37" s="5">
         <v>5</v>
       </c>
-      <c r="K37" s="7">
+      <c r="K37" s="5">
         <v>0</v>
       </c>
       <c r="M37">
@@ -7412,28 +7412,28 @@
       <c r="A38" t="s">
         <v>52</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="5">
         <v>2</v>
       </c>
-      <c r="F38" s="7">
-        <v>0</v>
-      </c>
-      <c r="G38" s="7">
-        <v>0</v>
-      </c>
-      <c r="H38" s="7">
-        <v>1</v>
-      </c>
-      <c r="I38" s="7">
-        <v>0</v>
-      </c>
-      <c r="J38" s="7">
-        <v>1</v>
-      </c>
-      <c r="K38" s="7">
+      <c r="F38" s="5">
+        <v>0</v>
+      </c>
+      <c r="G38" s="5">
+        <v>0</v>
+      </c>
+      <c r="H38" s="5">
+        <v>1</v>
+      </c>
+      <c r="I38" s="5">
+        <v>0</v>
+      </c>
+      <c r="J38" s="5">
+        <v>1</v>
+      </c>
+      <c r="K38" s="5">
         <v>0</v>
       </c>
       <c r="M38">
@@ -7489,28 +7489,28 @@
       <c r="A40" t="s">
         <v>59</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="5">
         <v>18</v>
       </c>
-      <c r="F40" s="7">
-        <v>0</v>
-      </c>
-      <c r="G40" s="7">
-        <v>0</v>
-      </c>
-      <c r="H40" s="7">
+      <c r="F40" s="5">
+        <v>0</v>
+      </c>
+      <c r="G40" s="5">
+        <v>0</v>
+      </c>
+      <c r="H40" s="5">
         <v>16</v>
       </c>
-      <c r="I40" s="7">
+      <c r="I40" s="5">
         <v>2</v>
       </c>
-      <c r="J40" s="7">
-        <v>0</v>
-      </c>
-      <c r="K40" s="7">
+      <c r="J40" s="5">
+        <v>0</v>
+      </c>
+      <c r="K40" s="5">
         <v>0</v>
       </c>
       <c r="M40">
@@ -7526,31 +7526,31 @@
       <c r="A41" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E41" s="8">
-        <v>1</v>
-      </c>
-      <c r="F41" s="8">
-        <v>0</v>
-      </c>
-      <c r="G41" s="8">
-        <v>0</v>
-      </c>
-      <c r="H41" s="8">
-        <v>0</v>
-      </c>
-      <c r="I41" s="8">
-        <v>0</v>
-      </c>
-      <c r="J41" s="8">
-        <v>1</v>
-      </c>
-      <c r="K41" s="8">
+      <c r="E41" s="6">
+        <v>1</v>
+      </c>
+      <c r="F41" s="6">
+        <v>0</v>
+      </c>
+      <c r="G41" s="6">
+        <v>0</v>
+      </c>
+      <c r="H41" s="6">
+        <v>0</v>
+      </c>
+      <c r="I41" s="6">
+        <v>0</v>
+      </c>
+      <c r="J41" s="6">
+        <v>1</v>
+      </c>
+      <c r="K41" s="6">
         <v>0</v>
       </c>
       <c r="M41">
@@ -7566,31 +7566,31 @@
       <c r="A42" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="5">
         <v>92</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F42" s="5">
         <v>15</v>
       </c>
-      <c r="G42" s="7">
-        <v>0</v>
-      </c>
-      <c r="H42" s="7">
+      <c r="G42" s="5">
+        <v>0</v>
+      </c>
+      <c r="H42" s="5">
         <v>17</v>
       </c>
-      <c r="I42" s="7">
-        <v>0</v>
-      </c>
-      <c r="J42" s="7">
+      <c r="I42" s="5">
+        <v>0</v>
+      </c>
+      <c r="J42" s="5">
         <v>60</v>
       </c>
-      <c r="K42" s="7">
+      <c r="K42" s="5">
         <v>0</v>
       </c>
       <c r="M42">
@@ -7606,31 +7606,31 @@
       <c r="A43" t="s">
         <v>78</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E43" s="6">
         <v>3</v>
       </c>
-      <c r="F43" s="8">
-        <v>0</v>
-      </c>
-      <c r="G43" s="8">
-        <v>0</v>
-      </c>
-      <c r="H43" s="8">
-        <v>0</v>
-      </c>
-      <c r="I43" s="8">
-        <v>0</v>
-      </c>
-      <c r="J43" s="8">
+      <c r="F43" s="6">
+        <v>0</v>
+      </c>
+      <c r="G43" s="6">
+        <v>0</v>
+      </c>
+      <c r="H43" s="6">
+        <v>0</v>
+      </c>
+      <c r="I43" s="6">
+        <v>0</v>
+      </c>
+      <c r="J43" s="6">
         <v>3</v>
       </c>
-      <c r="K43" s="8">
+      <c r="K43" s="6">
         <v>0</v>
       </c>
       <c r="M43">
@@ -7646,31 +7646,31 @@
       <c r="A44" t="s">
         <v>80</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="5">
         <v>5</v>
       </c>
-      <c r="F44" s="7">
-        <v>0</v>
-      </c>
-      <c r="G44" s="7">
-        <v>0</v>
-      </c>
-      <c r="H44" s="7">
-        <v>0</v>
-      </c>
-      <c r="I44" s="7">
+      <c r="F44" s="5">
+        <v>0</v>
+      </c>
+      <c r="G44" s="5">
+        <v>0</v>
+      </c>
+      <c r="H44" s="5">
+        <v>0</v>
+      </c>
+      <c r="I44" s="5">
         <v>3</v>
       </c>
-      <c r="J44" s="7">
+      <c r="J44" s="5">
         <v>2</v>
       </c>
-      <c r="K44" s="7">
+      <c r="K44" s="5">
         <v>0</v>
       </c>
       <c r="M44">
@@ -7726,28 +7726,28 @@
       <c r="A46" t="s">
         <v>141</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="5">
         <v>7</v>
       </c>
-      <c r="F46" s="7">
-        <v>0</v>
-      </c>
-      <c r="G46" s="7">
+      <c r="F46" s="5">
+        <v>0</v>
+      </c>
+      <c r="G46" s="5">
         <v>2</v>
       </c>
-      <c r="H46" s="7">
-        <v>0</v>
-      </c>
-      <c r="I46" s="7">
+      <c r="H46" s="5">
+        <v>0</v>
+      </c>
+      <c r="I46" s="5">
         <v>2</v>
       </c>
-      <c r="J46" s="7">
-        <v>1</v>
-      </c>
-      <c r="K46" s="7">
+      <c r="J46" s="5">
+        <v>1</v>
+      </c>
+      <c r="K46" s="5">
         <v>2</v>
       </c>
       <c r="M46">
@@ -7763,31 +7763,31 @@
       <c r="A47" t="s">
         <v>91</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E47" s="8">
+      <c r="E47" s="6">
         <v>7</v>
       </c>
-      <c r="F47" s="8">
-        <v>0</v>
-      </c>
-      <c r="G47" s="8">
-        <v>0</v>
-      </c>
-      <c r="H47" s="8">
-        <v>1</v>
-      </c>
-      <c r="I47" s="8">
-        <v>0</v>
-      </c>
-      <c r="J47" s="8">
+      <c r="F47" s="6">
+        <v>0</v>
+      </c>
+      <c r="G47" s="6">
+        <v>0</v>
+      </c>
+      <c r="H47" s="6">
+        <v>1</v>
+      </c>
+      <c r="I47" s="6">
+        <v>0</v>
+      </c>
+      <c r="J47" s="6">
         <v>6</v>
       </c>
-      <c r="K47" s="8">
+      <c r="K47" s="6">
         <v>0</v>
       </c>
       <c r="M47">
@@ -7803,31 +7803,31 @@
       <c r="A48" t="s">
         <v>76</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E48" s="7">
-        <v>1</v>
-      </c>
-      <c r="F48" s="7">
-        <v>0</v>
-      </c>
-      <c r="G48" s="7">
-        <v>1</v>
-      </c>
-      <c r="H48" s="7">
-        <v>0</v>
-      </c>
-      <c r="I48" s="7">
-        <v>0</v>
-      </c>
-      <c r="J48" s="7">
-        <v>0</v>
-      </c>
-      <c r="K48" s="7">
+      <c r="E48" s="5">
+        <v>1</v>
+      </c>
+      <c r="F48" s="5">
+        <v>0</v>
+      </c>
+      <c r="G48" s="5">
+        <v>1</v>
+      </c>
+      <c r="H48" s="5">
+        <v>0</v>
+      </c>
+      <c r="I48" s="5">
+        <v>0</v>
+      </c>
+      <c r="J48" s="5">
+        <v>0</v>
+      </c>
+      <c r="K48" s="5">
         <v>0</v>
       </c>
       <c r="M48">
@@ -7843,28 +7843,28 @@
       <c r="A49" t="s">
         <v>76</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49" s="5">
         <v>4</v>
       </c>
-      <c r="F49" s="7">
-        <v>0</v>
-      </c>
-      <c r="G49" s="7">
-        <v>0</v>
-      </c>
-      <c r="H49" s="7">
-        <v>0</v>
-      </c>
-      <c r="I49" s="7">
+      <c r="F49" s="5">
+        <v>0</v>
+      </c>
+      <c r="G49" s="5">
+        <v>0</v>
+      </c>
+      <c r="H49" s="5">
+        <v>0</v>
+      </c>
+      <c r="I49" s="5">
         <v>4</v>
       </c>
-      <c r="J49" s="7">
-        <v>0</v>
-      </c>
-      <c r="K49" s="7">
+      <c r="J49" s="5">
+        <v>0</v>
+      </c>
+      <c r="K49" s="5">
         <v>0</v>
       </c>
       <c r="M49">
@@ -7880,28 +7880,28 @@
       <c r="A50" t="s">
         <v>76</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E50" s="5">
         <v>11</v>
       </c>
-      <c r="F50" s="7">
-        <v>0</v>
-      </c>
-      <c r="G50" s="7">
+      <c r="F50" s="5">
+        <v>0</v>
+      </c>
+      <c r="G50" s="5">
         <v>7</v>
       </c>
-      <c r="H50" s="7">
-        <v>1</v>
-      </c>
-      <c r="I50" s="7">
-        <v>0</v>
-      </c>
-      <c r="J50" s="7">
+      <c r="H50" s="5">
+        <v>1</v>
+      </c>
+      <c r="I50" s="5">
+        <v>0</v>
+      </c>
+      <c r="J50" s="5">
         <v>3</v>
       </c>
-      <c r="K50" s="7">
+      <c r="K50" s="5">
         <v>0</v>
       </c>
       <c r="M50">
@@ -7917,28 +7917,28 @@
       <c r="A51" t="s">
         <v>76</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="E51" s="7">
-        <v>1</v>
-      </c>
-      <c r="F51" s="7">
-        <v>0</v>
-      </c>
-      <c r="G51" s="7">
-        <v>0</v>
-      </c>
-      <c r="H51" s="7">
-        <v>0</v>
-      </c>
-      <c r="I51" s="7">
-        <v>0</v>
-      </c>
-      <c r="J51" s="7">
-        <v>1</v>
-      </c>
-      <c r="K51" s="7">
+      <c r="E51" s="5">
+        <v>1</v>
+      </c>
+      <c r="F51" s="5">
+        <v>0</v>
+      </c>
+      <c r="G51" s="5">
+        <v>0</v>
+      </c>
+      <c r="H51" s="5">
+        <v>0</v>
+      </c>
+      <c r="I51" s="5">
+        <v>0</v>
+      </c>
+      <c r="J51" s="5">
+        <v>1</v>
+      </c>
+      <c r="K51" s="5">
         <v>0</v>
       </c>
       <c r="M51">
@@ -7954,28 +7954,28 @@
       <c r="A52" t="s">
         <v>76</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="E52" s="7">
-        <v>1</v>
-      </c>
-      <c r="F52" s="7">
-        <v>0</v>
-      </c>
-      <c r="G52" s="7">
-        <v>0</v>
-      </c>
-      <c r="H52" s="7">
-        <v>0</v>
-      </c>
-      <c r="I52" s="7">
-        <v>0</v>
-      </c>
-      <c r="J52" s="7">
-        <v>1</v>
-      </c>
-      <c r="K52" s="7">
+      <c r="E52" s="5">
+        <v>1</v>
+      </c>
+      <c r="F52" s="5">
+        <v>0</v>
+      </c>
+      <c r="G52" s="5">
+        <v>0</v>
+      </c>
+      <c r="H52" s="5">
+        <v>0</v>
+      </c>
+      <c r="I52" s="5">
+        <v>0</v>
+      </c>
+      <c r="J52" s="5">
+        <v>1</v>
+      </c>
+      <c r="K52" s="5">
         <v>0</v>
       </c>
       <c r="M52">
@@ -7991,28 +7991,28 @@
       <c r="A53" t="s">
         <v>76</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="E53" s="7">
-        <v>1</v>
-      </c>
-      <c r="F53" s="7">
-        <v>0</v>
-      </c>
-      <c r="G53" s="7">
-        <v>0</v>
-      </c>
-      <c r="H53" s="7">
-        <v>0</v>
-      </c>
-      <c r="I53" s="7">
-        <v>0</v>
-      </c>
-      <c r="J53" s="7">
-        <v>1</v>
-      </c>
-      <c r="K53" s="7">
+      <c r="E53" s="5">
+        <v>1</v>
+      </c>
+      <c r="F53" s="5">
+        <v>0</v>
+      </c>
+      <c r="G53" s="5">
+        <v>0</v>
+      </c>
+      <c r="H53" s="5">
+        <v>0</v>
+      </c>
+      <c r="I53" s="5">
+        <v>0</v>
+      </c>
+      <c r="J53" s="5">
+        <v>1</v>
+      </c>
+      <c r="K53" s="5">
         <v>0</v>
       </c>
       <c r="M53">
@@ -8028,31 +8028,31 @@
       <c r="A54" t="s">
         <v>103</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D54" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E54" s="8">
-        <v>1</v>
-      </c>
-      <c r="F54" s="8">
-        <v>0</v>
-      </c>
-      <c r="G54" s="8">
-        <v>0</v>
-      </c>
-      <c r="H54" s="8">
-        <v>0</v>
-      </c>
-      <c r="I54" s="8">
-        <v>0</v>
-      </c>
-      <c r="J54" s="8">
-        <v>1</v>
-      </c>
-      <c r="K54" s="8">
+      <c r="E54" s="6">
+        <v>1</v>
+      </c>
+      <c r="F54" s="6">
+        <v>0</v>
+      </c>
+      <c r="G54" s="6">
+        <v>0</v>
+      </c>
+      <c r="H54" s="6">
+        <v>0</v>
+      </c>
+      <c r="I54" s="6">
+        <v>0</v>
+      </c>
+      <c r="J54" s="6">
+        <v>1</v>
+      </c>
+      <c r="K54" s="6">
         <v>0</v>
       </c>
       <c r="M54">
@@ -8068,31 +8068,31 @@
       <c r="A55" t="s">
         <v>15</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D55" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E55" s="5">
         <v>15</v>
       </c>
-      <c r="F55" s="7">
-        <v>0</v>
-      </c>
-      <c r="G55" s="7">
-        <v>0</v>
-      </c>
-      <c r="H55" s="7">
-        <v>0</v>
-      </c>
-      <c r="I55" s="7">
+      <c r="F55" s="5">
+        <v>0</v>
+      </c>
+      <c r="G55" s="5">
+        <v>0</v>
+      </c>
+      <c r="H55" s="5">
+        <v>0</v>
+      </c>
+      <c r="I55" s="5">
         <v>11</v>
       </c>
-      <c r="J55" s="7">
-        <v>0</v>
-      </c>
-      <c r="K55" s="7">
+      <c r="J55" s="5">
+        <v>0</v>
+      </c>
+      <c r="K55" s="5">
         <v>4</v>
       </c>
       <c r="M55">
@@ -8108,28 +8108,28 @@
       <c r="A56" t="s">
         <v>15</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D56" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E56" s="7">
-        <v>1</v>
-      </c>
-      <c r="F56" s="7">
-        <v>0</v>
-      </c>
-      <c r="G56" s="7">
-        <v>0</v>
-      </c>
-      <c r="H56" s="7">
-        <v>0</v>
-      </c>
-      <c r="I56" s="7">
-        <v>0</v>
-      </c>
-      <c r="J56" s="7">
-        <v>1</v>
-      </c>
-      <c r="K56" s="7">
+      <c r="E56" s="5">
+        <v>1</v>
+      </c>
+      <c r="F56" s="5">
+        <v>0</v>
+      </c>
+      <c r="G56" s="5">
+        <v>0</v>
+      </c>
+      <c r="H56" s="5">
+        <v>0</v>
+      </c>
+      <c r="I56" s="5">
+        <v>0</v>
+      </c>
+      <c r="J56" s="5">
+        <v>1</v>
+      </c>
+      <c r="K56" s="5">
         <v>0</v>
       </c>
       <c r="M56">
@@ -8145,28 +8145,28 @@
       <c r="A57" t="s">
         <v>15</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D57" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="E57" s="7">
+      <c r="E57" s="5">
         <v>7</v>
       </c>
-      <c r="F57" s="7">
-        <v>0</v>
-      </c>
-      <c r="G57" s="7">
-        <v>0</v>
-      </c>
-      <c r="H57" s="7">
+      <c r="F57" s="5">
+        <v>0</v>
+      </c>
+      <c r="G57" s="5">
+        <v>0</v>
+      </c>
+      <c r="H57" s="5">
         <v>3</v>
       </c>
-      <c r="I57" s="7">
-        <v>0</v>
-      </c>
-      <c r="J57" s="7">
+      <c r="I57" s="5">
+        <v>0</v>
+      </c>
+      <c r="J57" s="5">
         <v>4</v>
       </c>
-      <c r="K57" s="7">
+      <c r="K57" s="5">
         <v>0</v>
       </c>
       <c r="M57">
@@ -8182,28 +8182,28 @@
       <c r="A58" t="s">
         <v>15</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E58" s="5">
         <v>32</v>
       </c>
-      <c r="F58" s="7">
-        <v>0</v>
-      </c>
-      <c r="G58" s="7">
+      <c r="F58" s="5">
+        <v>0</v>
+      </c>
+      <c r="G58" s="5">
         <v>13</v>
       </c>
-      <c r="H58" s="7">
-        <v>1</v>
-      </c>
-      <c r="I58" s="7">
+      <c r="H58" s="5">
+        <v>1</v>
+      </c>
+      <c r="I58" s="5">
         <v>13</v>
       </c>
-      <c r="J58" s="7">
-        <v>0</v>
-      </c>
-      <c r="K58" s="7">
+      <c r="J58" s="5">
+        <v>0</v>
+      </c>
+      <c r="K58" s="5">
         <v>5</v>
       </c>
       <c r="M58">
@@ -8219,31 +8219,31 @@
       <c r="A59" t="s">
         <v>108</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D59" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="E59" s="8">
+      <c r="E59" s="6">
         <v>10</v>
       </c>
-      <c r="F59" s="8">
-        <v>0</v>
-      </c>
-      <c r="G59" s="8">
-        <v>0</v>
-      </c>
-      <c r="H59" s="8">
-        <v>0</v>
-      </c>
-      <c r="I59" s="8">
-        <v>0</v>
-      </c>
-      <c r="J59" s="8">
+      <c r="F59" s="6">
+        <v>0</v>
+      </c>
+      <c r="G59" s="6">
+        <v>0</v>
+      </c>
+      <c r="H59" s="6">
+        <v>0</v>
+      </c>
+      <c r="I59" s="6">
+        <v>0</v>
+      </c>
+      <c r="J59" s="6">
         <v>10</v>
       </c>
-      <c r="K59" s="8">
+      <c r="K59" s="6">
         <v>0</v>
       </c>
       <c r="M59">
@@ -8259,31 +8259,31 @@
       <c r="A60" t="s">
         <v>64</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D60" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E60" s="7">
-        <v>1</v>
-      </c>
-      <c r="F60" s="7">
-        <v>0</v>
-      </c>
-      <c r="G60" s="7">
-        <v>0</v>
-      </c>
-      <c r="H60" s="7">
-        <v>0</v>
-      </c>
-      <c r="I60" s="7">
-        <v>1</v>
-      </c>
-      <c r="J60" s="7">
-        <v>0</v>
-      </c>
-      <c r="K60" s="7">
+      <c r="E60" s="5">
+        <v>1</v>
+      </c>
+      <c r="F60" s="5">
+        <v>0</v>
+      </c>
+      <c r="G60" s="5">
+        <v>0</v>
+      </c>
+      <c r="H60" s="5">
+        <v>0</v>
+      </c>
+      <c r="I60" s="5">
+        <v>1</v>
+      </c>
+      <c r="J60" s="5">
+        <v>0</v>
+      </c>
+      <c r="K60" s="5">
         <v>0</v>
       </c>
       <c r="M60">
@@ -8299,28 +8299,28 @@
       <c r="A61" t="s">
         <v>64</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E61" s="7">
-        <v>1</v>
-      </c>
-      <c r="F61" s="7">
-        <v>0</v>
-      </c>
-      <c r="G61" s="7">
-        <v>1</v>
-      </c>
-      <c r="H61" s="7">
-        <v>0</v>
-      </c>
-      <c r="I61" s="7">
-        <v>0</v>
-      </c>
-      <c r="J61" s="7">
-        <v>0</v>
-      </c>
-      <c r="K61" s="7">
+      <c r="E61" s="5">
+        <v>1</v>
+      </c>
+      <c r="F61" s="5">
+        <v>0</v>
+      </c>
+      <c r="G61" s="5">
+        <v>1</v>
+      </c>
+      <c r="H61" s="5">
+        <v>0</v>
+      </c>
+      <c r="I61" s="5">
+        <v>0</v>
+      </c>
+      <c r="J61" s="5">
+        <v>0</v>
+      </c>
+      <c r="K61" s="5">
         <v>0</v>
       </c>
       <c r="M61">
@@ -8376,28 +8376,28 @@
       <c r="A63" t="s">
         <v>95</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D63" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E63" s="7">
+      <c r="E63" s="5">
         <v>5</v>
       </c>
-      <c r="F63" s="7">
-        <v>0</v>
-      </c>
-      <c r="G63" s="7">
-        <v>0</v>
-      </c>
-      <c r="H63" s="7">
-        <v>0</v>
-      </c>
-      <c r="I63" s="7">
+      <c r="F63" s="5">
+        <v>0</v>
+      </c>
+      <c r="G63" s="5">
+        <v>0</v>
+      </c>
+      <c r="H63" s="5">
+        <v>0</v>
+      </c>
+      <c r="I63" s="5">
         <v>2</v>
       </c>
-      <c r="J63" s="7">
+      <c r="J63" s="5">
         <v>3</v>
       </c>
-      <c r="K63" s="7">
+      <c r="K63" s="5">
         <v>0</v>
       </c>
       <c r="M63">
@@ -8413,28 +8413,28 @@
       <c r="A64" t="s">
         <v>95</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D64" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="E64" s="7">
+      <c r="E64" s="5">
         <v>40</v>
       </c>
-      <c r="F64" s="7">
-        <v>0</v>
-      </c>
-      <c r="G64" s="7">
+      <c r="F64" s="5">
+        <v>0</v>
+      </c>
+      <c r="G64" s="5">
         <v>10</v>
       </c>
-      <c r="H64" s="7">
-        <v>1</v>
-      </c>
-      <c r="I64" s="7">
+      <c r="H64" s="5">
+        <v>1</v>
+      </c>
+      <c r="I64" s="5">
         <v>17</v>
       </c>
-      <c r="J64" s="7">
+      <c r="J64" s="5">
         <v>7</v>
       </c>
-      <c r="K64" s="7">
+      <c r="K64" s="5">
         <v>5</v>
       </c>
       <c r="M64">
@@ -8450,28 +8450,28 @@
       <c r="A65" t="s">
         <v>95</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D65" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="E65" s="7">
+      <c r="E65" s="5">
         <v>10</v>
       </c>
-      <c r="F65" s="7">
-        <v>0</v>
-      </c>
-      <c r="G65" s="7">
-        <v>0</v>
-      </c>
-      <c r="H65" s="7">
-        <v>0</v>
-      </c>
-      <c r="I65" s="7">
-        <v>0</v>
-      </c>
-      <c r="J65" s="7">
+      <c r="F65" s="5">
+        <v>0</v>
+      </c>
+      <c r="G65" s="5">
+        <v>0</v>
+      </c>
+      <c r="H65" s="5">
+        <v>0</v>
+      </c>
+      <c r="I65" s="5">
+        <v>0</v>
+      </c>
+      <c r="J65" s="5">
         <v>10</v>
       </c>
-      <c r="K65" s="7">
+      <c r="K65" s="5">
         <v>0</v>
       </c>
       <c r="M65">
@@ -8487,28 +8487,28 @@
       <c r="A66" t="s">
         <v>95</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="D66" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="E66" s="7">
+      <c r="E66" s="5">
         <v>148</v>
       </c>
-      <c r="F66" s="7">
+      <c r="F66" s="5">
         <v>3</v>
       </c>
-      <c r="G66" s="7">
+      <c r="G66" s="5">
         <v>33</v>
       </c>
-      <c r="H66" s="7">
+      <c r="H66" s="5">
         <v>6</v>
       </c>
-      <c r="I66" s="7">
+      <c r="I66" s="5">
         <v>47</v>
       </c>
-      <c r="J66" s="7">
+      <c r="J66" s="5">
         <v>31</v>
       </c>
-      <c r="K66" s="7">
+      <c r="K66" s="5">
         <v>28</v>
       </c>
       <c r="M66">
@@ -8524,28 +8524,28 @@
       <c r="A67" t="s">
         <v>95</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="D67" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E67" s="7">
+      <c r="E67" s="5">
         <v>55</v>
       </c>
-      <c r="F67" s="7">
-        <v>0</v>
-      </c>
-      <c r="G67" s="7">
+      <c r="F67" s="5">
+        <v>0</v>
+      </c>
+      <c r="G67" s="5">
         <v>16</v>
       </c>
-      <c r="H67" s="7">
+      <c r="H67" s="5">
         <v>2</v>
       </c>
-      <c r="I67" s="7">
+      <c r="I67" s="5">
         <v>19</v>
       </c>
-      <c r="J67" s="7">
-        <v>0</v>
-      </c>
-      <c r="K67" s="7">
+      <c r="J67" s="5">
+        <v>0</v>
+      </c>
+      <c r="K67" s="5">
         <v>18</v>
       </c>
       <c r="M67">
@@ -8561,28 +8561,28 @@
       <c r="A68" t="s">
         <v>95</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="D68" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="E68" s="7">
+      <c r="E68" s="5">
         <v>10</v>
       </c>
-      <c r="F68" s="7">
-        <v>0</v>
-      </c>
-      <c r="G68" s="7">
+      <c r="F68" s="5">
+        <v>0</v>
+      </c>
+      <c r="G68" s="5">
         <v>4</v>
       </c>
-      <c r="H68" s="7">
-        <v>0</v>
-      </c>
-      <c r="I68" s="7">
-        <v>0</v>
-      </c>
-      <c r="J68" s="7">
+      <c r="H68" s="5">
+        <v>0</v>
+      </c>
+      <c r="I68" s="5">
+        <v>0</v>
+      </c>
+      <c r="J68" s="5">
         <v>6</v>
       </c>
-      <c r="K68" s="7">
+      <c r="K68" s="5">
         <v>0</v>
       </c>
       <c r="M68">
@@ -8598,28 +8598,28 @@
       <c r="A69" t="s">
         <v>95</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="D69" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E69" s="7">
-        <v>1</v>
-      </c>
-      <c r="F69" s="7">
-        <v>0</v>
-      </c>
-      <c r="G69" s="7">
-        <v>0</v>
-      </c>
-      <c r="H69" s="7">
-        <v>0</v>
-      </c>
-      <c r="I69" s="7">
-        <v>0</v>
-      </c>
-      <c r="J69" s="7">
-        <v>0</v>
-      </c>
-      <c r="K69" s="7">
+      <c r="E69" s="5">
+        <v>1</v>
+      </c>
+      <c r="F69" s="5">
+        <v>0</v>
+      </c>
+      <c r="G69" s="5">
+        <v>0</v>
+      </c>
+      <c r="H69" s="5">
+        <v>0</v>
+      </c>
+      <c r="I69" s="5">
+        <v>0</v>
+      </c>
+      <c r="J69" s="5">
+        <v>0</v>
+      </c>
+      <c r="K69" s="5">
         <v>1</v>
       </c>
       <c r="M69">
@@ -8635,28 +8635,28 @@
       <c r="A70" t="s">
         <v>95</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="D70" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="E70" s="7">
+      <c r="E70" s="5">
         <v>3</v>
       </c>
-      <c r="F70" s="7">
-        <v>0</v>
-      </c>
-      <c r="G70" s="7">
-        <v>0</v>
-      </c>
-      <c r="H70" s="7">
-        <v>1</v>
-      </c>
-      <c r="I70" s="7">
-        <v>1</v>
-      </c>
-      <c r="J70" s="7">
-        <v>0</v>
-      </c>
-      <c r="K70" s="7">
+      <c r="F70" s="5">
+        <v>0</v>
+      </c>
+      <c r="G70" s="5">
+        <v>0</v>
+      </c>
+      <c r="H70" s="5">
+        <v>1</v>
+      </c>
+      <c r="I70" s="5">
+        <v>1</v>
+      </c>
+      <c r="J70" s="5">
+        <v>0</v>
+      </c>
+      <c r="K70" s="5">
         <v>1</v>
       </c>
       <c r="M70">
@@ -8672,28 +8672,28 @@
       <c r="A71" t="s">
         <v>95</v>
       </c>
-      <c r="D71" s="7" t="s">
+      <c r="D71" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E71" s="7">
+      <c r="E71" s="5">
         <v>3</v>
       </c>
-      <c r="F71" s="7">
-        <v>0</v>
-      </c>
-      <c r="G71" s="7">
-        <v>0</v>
-      </c>
-      <c r="H71" s="7">
-        <v>0</v>
-      </c>
-      <c r="I71" s="7">
+      <c r="F71" s="5">
+        <v>0</v>
+      </c>
+      <c r="G71" s="5">
+        <v>0</v>
+      </c>
+      <c r="H71" s="5">
+        <v>0</v>
+      </c>
+      <c r="I71" s="5">
         <v>2</v>
       </c>
-      <c r="J71" s="7">
-        <v>0</v>
-      </c>
-      <c r="K71" s="7">
+      <c r="J71" s="5">
+        <v>0</v>
+      </c>
+      <c r="K71" s="5">
         <v>1</v>
       </c>
       <c r="M71">
@@ -8709,28 +8709,28 @@
       <c r="A72" t="s">
         <v>95</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="D72" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="E72" s="7">
-        <v>1</v>
-      </c>
-      <c r="F72" s="7">
-        <v>0</v>
-      </c>
-      <c r="G72" s="7">
-        <v>0</v>
-      </c>
-      <c r="H72" s="7">
-        <v>1</v>
-      </c>
-      <c r="I72" s="7">
-        <v>0</v>
-      </c>
-      <c r="J72" s="7">
-        <v>0</v>
-      </c>
-      <c r="K72" s="7">
+      <c r="E72" s="5">
+        <v>1</v>
+      </c>
+      <c r="F72" s="5">
+        <v>0</v>
+      </c>
+      <c r="G72" s="5">
+        <v>0</v>
+      </c>
+      <c r="H72" s="5">
+        <v>1</v>
+      </c>
+      <c r="I72" s="5">
+        <v>0</v>
+      </c>
+      <c r="J72" s="5">
+        <v>0</v>
+      </c>
+      <c r="K72" s="5">
         <v>0</v>
       </c>
       <c r="M72">
@@ -8786,28 +8786,28 @@
       <c r="A74" t="s">
         <v>118</v>
       </c>
-      <c r="D74" s="7" t="s">
+      <c r="D74" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="E74" s="7">
+      <c r="E74" s="5">
         <v>122</v>
       </c>
-      <c r="F74" s="7">
-        <v>0</v>
-      </c>
-      <c r="G74" s="7">
+      <c r="F74" s="5">
+        <v>0</v>
+      </c>
+      <c r="G74" s="5">
         <v>32</v>
       </c>
-      <c r="H74" s="7">
+      <c r="H74" s="5">
         <v>10</v>
       </c>
-      <c r="I74" s="7">
+      <c r="I74" s="5">
         <v>69</v>
       </c>
-      <c r="J74" s="7">
+      <c r="J74" s="5">
         <v>3</v>
       </c>
-      <c r="K74" s="7">
+      <c r="K74" s="5">
         <v>8</v>
       </c>
       <c r="M74">
@@ -8823,28 +8823,28 @@
       <c r="A75" t="s">
         <v>118</v>
       </c>
-      <c r="D75" s="7" t="s">
+      <c r="D75" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E75" s="7">
+      <c r="E75" s="5">
         <v>2</v>
       </c>
-      <c r="F75" s="7">
-        <v>0</v>
-      </c>
-      <c r="G75" s="7">
-        <v>0</v>
-      </c>
-      <c r="H75" s="7">
-        <v>0</v>
-      </c>
-      <c r="I75" s="7">
-        <v>0</v>
-      </c>
-      <c r="J75" s="7">
+      <c r="F75" s="5">
+        <v>0</v>
+      </c>
+      <c r="G75" s="5">
+        <v>0</v>
+      </c>
+      <c r="H75" s="5">
+        <v>0</v>
+      </c>
+      <c r="I75" s="5">
+        <v>0</v>
+      </c>
+      <c r="J75" s="5">
         <v>2</v>
       </c>
-      <c r="K75" s="7">
+      <c r="K75" s="5">
         <v>0</v>
       </c>
       <c r="M75">
@@ -8860,28 +8860,28 @@
       <c r="A76" t="s">
         <v>118</v>
       </c>
-      <c r="D76" s="7" t="s">
+      <c r="D76" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="E76" s="7">
-        <v>1</v>
-      </c>
-      <c r="F76" s="7">
-        <v>0</v>
-      </c>
-      <c r="G76" s="7">
-        <v>0</v>
-      </c>
-      <c r="H76" s="7">
-        <v>0</v>
-      </c>
-      <c r="I76" s="7">
-        <v>0</v>
-      </c>
-      <c r="J76" s="7">
-        <v>0</v>
-      </c>
-      <c r="K76" s="7">
+      <c r="E76" s="5">
+        <v>1</v>
+      </c>
+      <c r="F76" s="5">
+        <v>0</v>
+      </c>
+      <c r="G76" s="5">
+        <v>0</v>
+      </c>
+      <c r="H76" s="5">
+        <v>0</v>
+      </c>
+      <c r="I76" s="5">
+        <v>0</v>
+      </c>
+      <c r="J76" s="5">
+        <v>0</v>
+      </c>
+      <c r="K76" s="5">
         <v>1</v>
       </c>
       <c r="M76">
@@ -8897,28 +8897,28 @@
       <c r="A77" t="s">
         <v>118</v>
       </c>
-      <c r="D77" s="7" t="s">
+      <c r="D77" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E77" s="7">
+      <c r="E77" s="5">
         <v>24</v>
       </c>
-      <c r="F77" s="7">
+      <c r="F77" s="5">
         <v>6</v>
       </c>
-      <c r="G77" s="7">
-        <v>0</v>
-      </c>
-      <c r="H77" s="7">
+      <c r="G77" s="5">
+        <v>0</v>
+      </c>
+      <c r="H77" s="5">
         <v>11</v>
       </c>
-      <c r="I77" s="7">
-        <v>0</v>
-      </c>
-      <c r="J77" s="7">
+      <c r="I77" s="5">
+        <v>0</v>
+      </c>
+      <c r="J77" s="5">
         <v>7</v>
       </c>
-      <c r="K77" s="7">
+      <c r="K77" s="5">
         <v>0</v>
       </c>
       <c r="M77">
@@ -8934,28 +8934,28 @@
       <c r="A78" t="s">
         <v>118</v>
       </c>
-      <c r="D78" s="7" t="s">
+      <c r="D78" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="E78" s="7">
+      <c r="E78" s="5">
         <v>2</v>
       </c>
-      <c r="F78" s="7">
-        <v>0</v>
-      </c>
-      <c r="G78" s="7">
-        <v>0</v>
-      </c>
-      <c r="H78" s="7">
-        <v>0</v>
-      </c>
-      <c r="I78" s="7">
-        <v>0</v>
-      </c>
-      <c r="J78" s="7">
+      <c r="F78" s="5">
+        <v>0</v>
+      </c>
+      <c r="G78" s="5">
+        <v>0</v>
+      </c>
+      <c r="H78" s="5">
+        <v>0</v>
+      </c>
+      <c r="I78" s="5">
+        <v>0</v>
+      </c>
+      <c r="J78" s="5">
         <v>2</v>
       </c>
-      <c r="K78" s="7">
+      <c r="K78" s="5">
         <v>0</v>
       </c>
       <c r="M78">
@@ -8971,28 +8971,28 @@
       <c r="A79" t="s">
         <v>118</v>
       </c>
-      <c r="D79" s="7" t="s">
+      <c r="D79" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E79" s="7">
+      <c r="E79" s="5">
         <v>118</v>
       </c>
-      <c r="F79" s="7">
-        <v>0</v>
-      </c>
-      <c r="G79" s="7">
+      <c r="F79" s="5">
+        <v>0</v>
+      </c>
+      <c r="G79" s="5">
         <v>38</v>
       </c>
-      <c r="H79" s="7">
-        <v>0</v>
-      </c>
-      <c r="I79" s="7">
+      <c r="H79" s="5">
+        <v>0</v>
+      </c>
+      <c r="I79" s="5">
         <v>51</v>
       </c>
-      <c r="J79" s="7">
-        <v>1</v>
-      </c>
-      <c r="K79" s="7">
+      <c r="J79" s="5">
+        <v>1</v>
+      </c>
+      <c r="K79" s="5">
         <v>28</v>
       </c>
       <c r="M79">
@@ -9008,28 +9008,28 @@
       <c r="A80" t="s">
         <v>118</v>
       </c>
-      <c r="D80" s="7" t="s">
+      <c r="D80" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E80" s="7">
+      <c r="E80" s="5">
         <v>9</v>
       </c>
-      <c r="F80" s="7">
-        <v>0</v>
-      </c>
-      <c r="G80" s="7">
+      <c r="F80" s="5">
+        <v>0</v>
+      </c>
+      <c r="G80" s="5">
         <v>4</v>
       </c>
-      <c r="H80" s="7">
-        <v>0</v>
-      </c>
-      <c r="I80" s="7">
+      <c r="H80" s="5">
+        <v>0</v>
+      </c>
+      <c r="I80" s="5">
         <v>3</v>
       </c>
-      <c r="J80" s="7">
-        <v>0</v>
-      </c>
-      <c r="K80" s="7">
+      <c r="J80" s="5">
+        <v>0</v>
+      </c>
+      <c r="K80" s="5">
         <v>2</v>
       </c>
       <c r="M80">
@@ -9045,28 +9045,28 @@
       <c r="A81" t="s">
         <v>118</v>
       </c>
-      <c r="D81" s="7" t="s">
+      <c r="D81" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="E81" s="7">
+      <c r="E81" s="5">
         <v>10</v>
       </c>
-      <c r="F81" s="7">
+      <c r="F81" s="5">
         <v>2</v>
       </c>
-      <c r="G81" s="7">
+      <c r="G81" s="5">
         <v>4</v>
       </c>
-      <c r="H81" s="7">
-        <v>0</v>
-      </c>
-      <c r="I81" s="7">
+      <c r="H81" s="5">
+        <v>0</v>
+      </c>
+      <c r="I81" s="5">
         <v>3</v>
       </c>
-      <c r="J81" s="7">
-        <v>0</v>
-      </c>
-      <c r="K81" s="7">
+      <c r="J81" s="5">
+        <v>0</v>
+      </c>
+      <c r="K81" s="5">
         <v>1</v>
       </c>
       <c r="M81">
@@ -9082,28 +9082,28 @@
       <c r="A82" t="s">
         <v>118</v>
       </c>
-      <c r="D82" s="7" t="s">
+      <c r="D82" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="E82" s="7">
-        <v>1</v>
-      </c>
-      <c r="F82" s="7">
-        <v>0</v>
-      </c>
-      <c r="G82" s="7">
-        <v>0</v>
-      </c>
-      <c r="H82" s="7">
-        <v>0</v>
-      </c>
-      <c r="I82" s="7">
-        <v>1</v>
-      </c>
-      <c r="J82" s="7">
-        <v>0</v>
-      </c>
-      <c r="K82" s="7">
+      <c r="E82" s="5">
+        <v>1</v>
+      </c>
+      <c r="F82" s="5">
+        <v>0</v>
+      </c>
+      <c r="G82" s="5">
+        <v>0</v>
+      </c>
+      <c r="H82" s="5">
+        <v>0</v>
+      </c>
+      <c r="I82" s="5">
+        <v>1</v>
+      </c>
+      <c r="J82" s="5">
+        <v>0</v>
+      </c>
+      <c r="K82" s="5">
         <v>0</v>
       </c>
       <c r="M82">
@@ -9119,28 +9119,28 @@
       <c r="A83" t="s">
         <v>118</v>
       </c>
-      <c r="D83" s="7" t="s">
+      <c r="D83" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E83" s="7">
-        <v>1</v>
-      </c>
-      <c r="F83" s="7">
-        <v>0</v>
-      </c>
-      <c r="G83" s="7">
-        <v>0</v>
-      </c>
-      <c r="H83" s="7">
-        <v>0</v>
-      </c>
-      <c r="I83" s="7">
-        <v>1</v>
-      </c>
-      <c r="J83" s="7">
-        <v>0</v>
-      </c>
-      <c r="K83" s="7">
+      <c r="E83" s="5">
+        <v>1</v>
+      </c>
+      <c r="F83" s="5">
+        <v>0</v>
+      </c>
+      <c r="G83" s="5">
+        <v>0</v>
+      </c>
+      <c r="H83" s="5">
+        <v>0</v>
+      </c>
+      <c r="I83" s="5">
+        <v>1</v>
+      </c>
+      <c r="J83" s="5">
+        <v>0</v>
+      </c>
+      <c r="K83" s="5">
         <v>0</v>
       </c>
       <c r="M83">
@@ -9156,28 +9156,28 @@
       <c r="A84" t="s">
         <v>118</v>
       </c>
-      <c r="D84" s="7" t="s">
+      <c r="D84" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E84" s="7">
-        <v>1</v>
-      </c>
-      <c r="F84" s="7">
-        <v>0</v>
-      </c>
-      <c r="G84" s="7">
-        <v>1</v>
-      </c>
-      <c r="H84" s="7">
-        <v>0</v>
-      </c>
-      <c r="I84" s="7">
-        <v>0</v>
-      </c>
-      <c r="J84" s="7">
-        <v>0</v>
-      </c>
-      <c r="K84" s="7">
+      <c r="E84" s="5">
+        <v>1</v>
+      </c>
+      <c r="F84" s="5">
+        <v>0</v>
+      </c>
+      <c r="G84" s="5">
+        <v>1</v>
+      </c>
+      <c r="H84" s="5">
+        <v>0</v>
+      </c>
+      <c r="I84" s="5">
+        <v>0</v>
+      </c>
+      <c r="J84" s="5">
+        <v>0</v>
+      </c>
+      <c r="K84" s="5">
         <v>0</v>
       </c>
       <c r="M84">
@@ -9193,28 +9193,28 @@
       <c r="A85" t="s">
         <v>118</v>
       </c>
-      <c r="D85" s="7" t="s">
+      <c r="D85" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="E85" s="7">
+      <c r="E85" s="5">
         <v>3</v>
       </c>
-      <c r="F85" s="7">
-        <v>0</v>
-      </c>
-      <c r="G85" s="7">
-        <v>0</v>
-      </c>
-      <c r="H85" s="7">
-        <v>0</v>
-      </c>
-      <c r="I85" s="7">
+      <c r="F85" s="5">
+        <v>0</v>
+      </c>
+      <c r="G85" s="5">
+        <v>0</v>
+      </c>
+      <c r="H85" s="5">
+        <v>0</v>
+      </c>
+      <c r="I85" s="5">
         <v>2</v>
       </c>
-      <c r="J85" s="7">
-        <v>1</v>
-      </c>
-      <c r="K85" s="7">
+      <c r="J85" s="5">
+        <v>1</v>
+      </c>
+      <c r="K85" s="5">
         <v>0</v>
       </c>
       <c r="M85">
@@ -9230,28 +9230,28 @@
       <c r="A86" t="s">
         <v>118</v>
       </c>
-      <c r="D86" s="7" t="s">
+      <c r="D86" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E86" s="7">
+      <c r="E86" s="5">
         <v>2</v>
       </c>
-      <c r="F86" s="7">
-        <v>0</v>
-      </c>
-      <c r="G86" s="7">
+      <c r="F86" s="5">
+        <v>0</v>
+      </c>
+      <c r="G86" s="5">
         <v>2</v>
       </c>
-      <c r="H86" s="7">
-        <v>0</v>
-      </c>
-      <c r="I86" s="7">
-        <v>0</v>
-      </c>
-      <c r="J86" s="7">
-        <v>0</v>
-      </c>
-      <c r="K86" s="7">
+      <c r="H86" s="5">
+        <v>0</v>
+      </c>
+      <c r="I86" s="5">
+        <v>0</v>
+      </c>
+      <c r="J86" s="5">
+        <v>0</v>
+      </c>
+      <c r="K86" s="5">
         <v>0</v>
       </c>
       <c r="M86">
@@ -9267,28 +9267,28 @@
       <c r="A87" t="s">
         <v>118</v>
       </c>
-      <c r="D87" s="7" t="s">
+      <c r="D87" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="E87" s="7">
+      <c r="E87" s="5">
         <v>16</v>
       </c>
-      <c r="F87" s="7">
-        <v>0</v>
-      </c>
-      <c r="G87" s="7">
+      <c r="F87" s="5">
+        <v>0</v>
+      </c>
+      <c r="G87" s="5">
         <v>9</v>
       </c>
-      <c r="H87" s="7">
-        <v>0</v>
-      </c>
-      <c r="I87" s="7">
+      <c r="H87" s="5">
+        <v>0</v>
+      </c>
+      <c r="I87" s="5">
         <v>7</v>
       </c>
-      <c r="J87" s="7">
-        <v>0</v>
-      </c>
-      <c r="K87" s="7">
+      <c r="J87" s="5">
+        <v>0</v>
+      </c>
+      <c r="K87" s="5">
         <v>0</v>
       </c>
       <c r="M87">
@@ -9344,28 +9344,28 @@
       <c r="A89" t="s">
         <v>72</v>
       </c>
-      <c r="D89" s="7" t="s">
+      <c r="D89" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E89" s="7">
-        <v>1</v>
-      </c>
-      <c r="F89" s="7">
-        <v>0</v>
-      </c>
-      <c r="G89" s="7">
-        <v>0</v>
-      </c>
-      <c r="H89" s="7">
-        <v>0</v>
-      </c>
-      <c r="I89" s="7">
-        <v>0</v>
-      </c>
-      <c r="J89" s="7">
-        <v>1</v>
-      </c>
-      <c r="K89" s="7">
+      <c r="E89" s="5">
+        <v>1</v>
+      </c>
+      <c r="F89" s="5">
+        <v>0</v>
+      </c>
+      <c r="G89" s="5">
+        <v>0</v>
+      </c>
+      <c r="H89" s="5">
+        <v>0</v>
+      </c>
+      <c r="I89" s="5">
+        <v>0</v>
+      </c>
+      <c r="J89" s="5">
+        <v>1</v>
+      </c>
+      <c r="K89" s="5">
         <v>0</v>
       </c>
       <c r="M89">
@@ -9421,28 +9421,28 @@
       <c r="A91" t="s">
         <v>133</v>
       </c>
-      <c r="D91" s="7" t="s">
+      <c r="D91" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="E91" s="7">
-        <v>1</v>
-      </c>
-      <c r="F91" s="7">
-        <v>0</v>
-      </c>
-      <c r="G91" s="7">
-        <v>0</v>
-      </c>
-      <c r="H91" s="7">
-        <v>0</v>
-      </c>
-      <c r="I91" s="7">
-        <v>0</v>
-      </c>
-      <c r="J91" s="7">
-        <v>1</v>
-      </c>
-      <c r="K91" s="7">
+      <c r="E91" s="5">
+        <v>1</v>
+      </c>
+      <c r="F91" s="5">
+        <v>0</v>
+      </c>
+      <c r="G91" s="5">
+        <v>0</v>
+      </c>
+      <c r="H91" s="5">
+        <v>0</v>
+      </c>
+      <c r="I91" s="5">
+        <v>0</v>
+      </c>
+      <c r="J91" s="5">
+        <v>1</v>
+      </c>
+      <c r="K91" s="5">
         <v>0</v>
       </c>
       <c r="M91">
@@ -9498,28 +9498,28 @@
       <c r="A93" t="s">
         <v>99</v>
       </c>
-      <c r="D93" s="7" t="s">
+      <c r="D93" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E93" s="7">
+      <c r="E93" s="5">
         <v>40</v>
       </c>
-      <c r="F93" s="7">
-        <v>0</v>
-      </c>
-      <c r="G93" s="7">
+      <c r="F93" s="5">
+        <v>0</v>
+      </c>
+      <c r="G93" s="5">
         <v>28</v>
       </c>
-      <c r="H93" s="7">
-        <v>0</v>
-      </c>
-      <c r="I93" s="7">
+      <c r="H93" s="5">
+        <v>0</v>
+      </c>
+      <c r="I93" s="5">
         <v>11</v>
       </c>
-      <c r="J93" s="7">
-        <v>0</v>
-      </c>
-      <c r="K93" s="7">
+      <c r="J93" s="5">
+        <v>0</v>
+      </c>
+      <c r="K93" s="5">
         <v>1</v>
       </c>
       <c r="M93">
@@ -9535,31 +9535,31 @@
       <c r="A94" t="s">
         <v>70</v>
       </c>
-      <c r="C94" s="8" t="s">
+      <c r="C94" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D94" s="8" t="s">
+      <c r="D94" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E94" s="8">
-        <v>1</v>
-      </c>
-      <c r="F94" s="8">
-        <v>0</v>
-      </c>
-      <c r="G94" s="8">
-        <v>0</v>
-      </c>
-      <c r="H94" s="8">
-        <v>0</v>
-      </c>
-      <c r="I94" s="8">
-        <v>0</v>
-      </c>
-      <c r="J94" s="8">
-        <v>1</v>
-      </c>
-      <c r="K94" s="8">
+      <c r="E94" s="6">
+        <v>1</v>
+      </c>
+      <c r="F94" s="6">
+        <v>0</v>
+      </c>
+      <c r="G94" s="6">
+        <v>0</v>
+      </c>
+      <c r="H94" s="6">
+        <v>0</v>
+      </c>
+      <c r="I94" s="6">
+        <v>0</v>
+      </c>
+      <c r="J94" s="6">
+        <v>1</v>
+      </c>
+      <c r="K94" s="6">
         <v>0</v>
       </c>
       <c r="M94">
@@ -9575,31 +9575,31 @@
       <c r="A95" t="s">
         <v>150</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="C95" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D95" s="7" t="s">
+      <c r="D95" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="E95" s="7">
+      <c r="E95" s="5">
         <v>4</v>
       </c>
-      <c r="F95" s="7">
-        <v>0</v>
-      </c>
-      <c r="G95" s="7">
-        <v>0</v>
-      </c>
-      <c r="H95" s="7">
+      <c r="F95" s="5">
+        <v>0</v>
+      </c>
+      <c r="G95" s="5">
+        <v>0</v>
+      </c>
+      <c r="H95" s="5">
         <v>4</v>
       </c>
-      <c r="I95" s="7">
-        <v>0</v>
-      </c>
-      <c r="J95" s="7">
-        <v>0</v>
-      </c>
-      <c r="K95" s="7">
+      <c r="I95" s="5">
+        <v>0</v>
+      </c>
+      <c r="J95" s="5">
+        <v>0</v>
+      </c>
+      <c r="K95" s="5">
         <v>0</v>
       </c>
       <c r="M95">
@@ -9655,28 +9655,28 @@
       <c r="A97" t="s">
         <v>105</v>
       </c>
-      <c r="D97" s="7" t="s">
+      <c r="D97" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="E97" s="7">
-        <v>1</v>
-      </c>
-      <c r="F97" s="7">
-        <v>0</v>
-      </c>
-      <c r="G97" s="7">
-        <v>0</v>
-      </c>
-      <c r="H97" s="7">
-        <v>1</v>
-      </c>
-      <c r="I97" s="7">
-        <v>0</v>
-      </c>
-      <c r="J97" s="7">
-        <v>0</v>
-      </c>
-      <c r="K97" s="7">
+      <c r="E97" s="5">
+        <v>1</v>
+      </c>
+      <c r="F97" s="5">
+        <v>0</v>
+      </c>
+      <c r="G97" s="5">
+        <v>0</v>
+      </c>
+      <c r="H97" s="5">
+        <v>1</v>
+      </c>
+      <c r="I97" s="5">
+        <v>0</v>
+      </c>
+      <c r="J97" s="5">
+        <v>0</v>
+      </c>
+      <c r="K97" s="5">
         <v>0</v>
       </c>
       <c r="M97">
@@ -9692,28 +9692,28 @@
       <c r="A98" t="s">
         <v>105</v>
       </c>
-      <c r="D98" s="7" t="s">
+      <c r="D98" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="E98" s="7">
+      <c r="E98" s="5">
         <v>4</v>
       </c>
-      <c r="F98" s="7">
-        <v>0</v>
-      </c>
-      <c r="G98" s="7">
-        <v>0</v>
-      </c>
-      <c r="H98" s="7">
+      <c r="F98" s="5">
+        <v>0</v>
+      </c>
+      <c r="G98" s="5">
+        <v>0</v>
+      </c>
+      <c r="H98" s="5">
         <v>2</v>
       </c>
-      <c r="I98" s="7">
-        <v>0</v>
-      </c>
-      <c r="J98" s="7">
+      <c r="I98" s="5">
+        <v>0</v>
+      </c>
+      <c r="J98" s="5">
         <v>2</v>
       </c>
-      <c r="K98" s="7">
+      <c r="K98" s="5">
         <v>0</v>
       </c>
       <c r="M98">
@@ -9729,28 +9729,28 @@
       <c r="A99" t="s">
         <v>105</v>
       </c>
-      <c r="D99" s="7" t="s">
+      <c r="D99" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="E99" s="7">
-        <v>1</v>
-      </c>
-      <c r="F99" s="7">
-        <v>0</v>
-      </c>
-      <c r="G99" s="7">
-        <v>0</v>
-      </c>
-      <c r="H99" s="7">
-        <v>0</v>
-      </c>
-      <c r="I99" s="7">
-        <v>0</v>
-      </c>
-      <c r="J99" s="7">
-        <v>1</v>
-      </c>
-      <c r="K99" s="7">
+      <c r="E99" s="5">
+        <v>1</v>
+      </c>
+      <c r="F99" s="5">
+        <v>0</v>
+      </c>
+      <c r="G99" s="5">
+        <v>0</v>
+      </c>
+      <c r="H99" s="5">
+        <v>0</v>
+      </c>
+      <c r="I99" s="5">
+        <v>0</v>
+      </c>
+      <c r="J99" s="5">
+        <v>1</v>
+      </c>
+      <c r="K99" s="5">
         <v>0</v>
       </c>
       <c r="M99">
@@ -9806,28 +9806,28 @@
       <c r="A101" t="s">
         <v>32</v>
       </c>
-      <c r="D101" s="7" t="s">
+      <c r="D101" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E101" s="7">
+      <c r="E101" s="5">
         <v>5</v>
       </c>
-      <c r="F101" s="7">
-        <v>0</v>
-      </c>
-      <c r="G101" s="7">
-        <v>0</v>
-      </c>
-      <c r="H101" s="7">
-        <v>1</v>
-      </c>
-      <c r="I101" s="7">
+      <c r="F101" s="5">
+        <v>0</v>
+      </c>
+      <c r="G101" s="5">
+        <v>0</v>
+      </c>
+      <c r="H101" s="5">
+        <v>1</v>
+      </c>
+      <c r="I101" s="5">
         <v>4</v>
       </c>
-      <c r="J101" s="7">
-        <v>0</v>
-      </c>
-      <c r="K101" s="7">
+      <c r="J101" s="5">
+        <v>0</v>
+      </c>
+      <c r="K101" s="5">
         <v>0</v>
       </c>
       <c r="M101">
@@ -9843,28 +9843,28 @@
       <c r="A102" t="s">
         <v>32</v>
       </c>
-      <c r="D102" s="7" t="s">
+      <c r="D102" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E102" s="7">
+      <c r="E102" s="5">
         <v>6</v>
       </c>
-      <c r="F102" s="7">
-        <v>0</v>
-      </c>
-      <c r="G102" s="7">
-        <v>0</v>
-      </c>
-      <c r="H102" s="7">
+      <c r="F102" s="5">
+        <v>0</v>
+      </c>
+      <c r="G102" s="5">
+        <v>0</v>
+      </c>
+      <c r="H102" s="5">
         <v>6</v>
       </c>
-      <c r="I102" s="7">
-        <v>0</v>
-      </c>
-      <c r="J102" s="7">
-        <v>0</v>
-      </c>
-      <c r="K102" s="7">
+      <c r="I102" s="5">
+        <v>0</v>
+      </c>
+      <c r="J102" s="5">
+        <v>0</v>
+      </c>
+      <c r="K102" s="5">
         <v>0</v>
       </c>
       <c r="M102">
@@ -9880,28 +9880,28 @@
       <c r="A103" t="s">
         <v>32</v>
       </c>
-      <c r="D103" s="7" t="s">
+      <c r="D103" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E103" s="7">
+      <c r="E103" s="5">
         <v>7</v>
       </c>
-      <c r="F103" s="7">
-        <v>0</v>
-      </c>
-      <c r="G103" s="7">
-        <v>0</v>
-      </c>
-      <c r="H103" s="7">
+      <c r="F103" s="5">
+        <v>0</v>
+      </c>
+      <c r="G103" s="5">
+        <v>0</v>
+      </c>
+      <c r="H103" s="5">
         <v>4</v>
       </c>
-      <c r="I103" s="7">
-        <v>0</v>
-      </c>
-      <c r="J103" s="7">
+      <c r="I103" s="5">
+        <v>0</v>
+      </c>
+      <c r="J103" s="5">
         <v>3</v>
       </c>
-      <c r="K103" s="7">
+      <c r="K103" s="5">
         <v>0</v>
       </c>
       <c r="M103">
@@ -9917,28 +9917,28 @@
       <c r="A104" t="s">
         <v>32</v>
       </c>
-      <c r="D104" s="7" t="s">
+      <c r="D104" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E104" s="7">
+      <c r="E104" s="5">
         <v>3</v>
       </c>
-      <c r="F104" s="7">
-        <v>0</v>
-      </c>
-      <c r="G104" s="7">
-        <v>0</v>
-      </c>
-      <c r="H104" s="7">
+      <c r="F104" s="5">
+        <v>0</v>
+      </c>
+      <c r="G104" s="5">
+        <v>0</v>
+      </c>
+      <c r="H104" s="5">
         <v>3</v>
       </c>
-      <c r="I104" s="7">
-        <v>0</v>
-      </c>
-      <c r="J104" s="7">
-        <v>0</v>
-      </c>
-      <c r="K104" s="7">
+      <c r="I104" s="5">
+        <v>0</v>
+      </c>
+      <c r="J104" s="5">
+        <v>0</v>
+      </c>
+      <c r="K104" s="5">
         <v>0</v>
       </c>
       <c r="M104">
@@ -9954,28 +9954,28 @@
       <c r="A105" t="s">
         <v>32</v>
       </c>
-      <c r="D105" s="7" t="s">
+      <c r="D105" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E105" s="7">
+      <c r="E105" s="5">
         <v>35</v>
       </c>
-      <c r="F105" s="7">
+      <c r="F105" s="5">
         <v>26</v>
       </c>
-      <c r="G105" s="7">
+      <c r="G105" s="5">
         <v>2</v>
       </c>
-      <c r="H105" s="7">
+      <c r="H105" s="5">
         <v>2</v>
       </c>
-      <c r="I105" s="7">
-        <v>0</v>
-      </c>
-      <c r="J105" s="7">
+      <c r="I105" s="5">
+        <v>0</v>
+      </c>
+      <c r="J105" s="5">
         <v>5</v>
       </c>
-      <c r="K105" s="7">
+      <c r="K105" s="5">
         <v>0</v>
       </c>
       <c r="M105">
@@ -9991,28 +9991,28 @@
       <c r="A106" t="s">
         <v>32</v>
       </c>
-      <c r="D106" s="7" t="s">
+      <c r="D106" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="E106" s="7">
+      <c r="E106" s="5">
         <v>10</v>
       </c>
-      <c r="F106" s="7">
-        <v>0</v>
-      </c>
-      <c r="G106" s="7">
-        <v>0</v>
-      </c>
-      <c r="H106" s="7">
-        <v>0</v>
-      </c>
-      <c r="I106" s="7">
-        <v>0</v>
-      </c>
-      <c r="J106" s="7">
+      <c r="F106" s="5">
+        <v>0</v>
+      </c>
+      <c r="G106" s="5">
+        <v>0</v>
+      </c>
+      <c r="H106" s="5">
+        <v>0</v>
+      </c>
+      <c r="I106" s="5">
+        <v>0</v>
+      </c>
+      <c r="J106" s="5">
         <v>10</v>
       </c>
-      <c r="K106" s="7">
+      <c r="K106" s="5">
         <v>0</v>
       </c>
       <c r="M106">
@@ -10028,28 +10028,28 @@
       <c r="A107" t="s">
         <v>32</v>
       </c>
-      <c r="D107" s="7" t="s">
+      <c r="D107" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E107" s="7">
-        <v>1</v>
-      </c>
-      <c r="F107" s="7">
-        <v>1</v>
-      </c>
-      <c r="G107" s="7">
-        <v>0</v>
-      </c>
-      <c r="H107" s="7">
-        <v>0</v>
-      </c>
-      <c r="I107" s="7">
-        <v>0</v>
-      </c>
-      <c r="J107" s="7">
-        <v>0</v>
-      </c>
-      <c r="K107" s="7">
+      <c r="E107" s="5">
+        <v>1</v>
+      </c>
+      <c r="F107" s="5">
+        <v>1</v>
+      </c>
+      <c r="G107" s="5">
+        <v>0</v>
+      </c>
+      <c r="H107" s="5">
+        <v>0</v>
+      </c>
+      <c r="I107" s="5">
+        <v>0</v>
+      </c>
+      <c r="J107" s="5">
+        <v>0</v>
+      </c>
+      <c r="K107" s="5">
         <v>0</v>
       </c>
       <c r="M107">
@@ -10065,28 +10065,28 @@
       <c r="A108" t="s">
         <v>32</v>
       </c>
-      <c r="D108" s="7" t="s">
+      <c r="D108" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="E108" s="7">
+      <c r="E108" s="5">
         <v>27</v>
       </c>
-      <c r="F108" s="7">
-        <v>0</v>
-      </c>
-      <c r="G108" s="7">
-        <v>0</v>
-      </c>
-      <c r="H108" s="7">
+      <c r="F108" s="5">
+        <v>0</v>
+      </c>
+      <c r="G108" s="5">
+        <v>0</v>
+      </c>
+      <c r="H108" s="5">
         <v>6</v>
       </c>
-      <c r="I108" s="7">
-        <v>0</v>
-      </c>
-      <c r="J108" s="7">
+      <c r="I108" s="5">
+        <v>0</v>
+      </c>
+      <c r="J108" s="5">
         <v>21</v>
       </c>
-      <c r="K108" s="7">
+      <c r="K108" s="5">
         <v>0</v>
       </c>
       <c r="M108">
@@ -10102,28 +10102,28 @@
       <c r="A109" t="s">
         <v>32</v>
       </c>
-      <c r="D109" s="7" t="s">
+      <c r="D109" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="E109" s="7">
-        <v>1</v>
-      </c>
-      <c r="F109" s="7">
-        <v>0</v>
-      </c>
-      <c r="G109" s="7">
-        <v>0</v>
-      </c>
-      <c r="H109" s="7">
-        <v>1</v>
-      </c>
-      <c r="I109" s="7">
-        <v>0</v>
-      </c>
-      <c r="J109" s="7">
-        <v>0</v>
-      </c>
-      <c r="K109" s="7">
+      <c r="E109" s="5">
+        <v>1</v>
+      </c>
+      <c r="F109" s="5">
+        <v>0</v>
+      </c>
+      <c r="G109" s="5">
+        <v>0</v>
+      </c>
+      <c r="H109" s="5">
+        <v>1</v>
+      </c>
+      <c r="I109" s="5">
+        <v>0</v>
+      </c>
+      <c r="J109" s="5">
+        <v>0</v>
+      </c>
+      <c r="K109" s="5">
         <v>0</v>
       </c>
       <c r="M109">
@@ -10139,28 +10139,28 @@
       <c r="A110" t="s">
         <v>32</v>
       </c>
-      <c r="D110" s="7" t="s">
+      <c r="D110" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="E110" s="7">
-        <v>1</v>
-      </c>
-      <c r="F110" s="7">
-        <v>0</v>
-      </c>
-      <c r="G110" s="7">
-        <v>0</v>
-      </c>
-      <c r="H110" s="7">
-        <v>0</v>
-      </c>
-      <c r="I110" s="7">
-        <v>1</v>
-      </c>
-      <c r="J110" s="7">
-        <v>0</v>
-      </c>
-      <c r="K110" s="7">
+      <c r="E110" s="5">
+        <v>1</v>
+      </c>
+      <c r="F110" s="5">
+        <v>0</v>
+      </c>
+      <c r="G110" s="5">
+        <v>0</v>
+      </c>
+      <c r="H110" s="5">
+        <v>0</v>
+      </c>
+      <c r="I110" s="5">
+        <v>1</v>
+      </c>
+      <c r="J110" s="5">
+        <v>0</v>
+      </c>
+      <c r="K110" s="5">
         <v>0</v>
       </c>
       <c r="M110">
@@ -10176,28 +10176,28 @@
       <c r="A111" t="s">
         <v>32</v>
       </c>
-      <c r="D111" s="7" t="s">
+      <c r="D111" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="E111" s="7">
+      <c r="E111" s="5">
         <v>35</v>
       </c>
-      <c r="F111" s="7">
+      <c r="F111" s="5">
         <v>35</v>
       </c>
-      <c r="G111" s="7">
-        <v>0</v>
-      </c>
-      <c r="H111" s="7">
-        <v>0</v>
-      </c>
-      <c r="I111" s="7">
-        <v>0</v>
-      </c>
-      <c r="J111" s="7">
-        <v>0</v>
-      </c>
-      <c r="K111" s="7">
+      <c r="G111" s="5">
+        <v>0</v>
+      </c>
+      <c r="H111" s="5">
+        <v>0</v>
+      </c>
+      <c r="I111" s="5">
+        <v>0</v>
+      </c>
+      <c r="J111" s="5">
+        <v>0</v>
+      </c>
+      <c r="K111" s="5">
         <v>0</v>
       </c>
       <c r="M111">
@@ -10213,28 +10213,28 @@
       <c r="A112" t="s">
         <v>32</v>
       </c>
-      <c r="D112" s="7" t="s">
+      <c r="D112" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E112" s="7">
+      <c r="E112" s="5">
         <v>9</v>
       </c>
-      <c r="F112" s="7">
-        <v>0</v>
-      </c>
-      <c r="G112" s="7">
-        <v>0</v>
-      </c>
-      <c r="H112" s="7">
-        <v>0</v>
-      </c>
-      <c r="I112" s="7">
-        <v>0</v>
-      </c>
-      <c r="J112" s="7">
+      <c r="F112" s="5">
+        <v>0</v>
+      </c>
+      <c r="G112" s="5">
+        <v>0</v>
+      </c>
+      <c r="H112" s="5">
+        <v>0</v>
+      </c>
+      <c r="I112" s="5">
+        <v>0</v>
+      </c>
+      <c r="J112" s="5">
         <v>9</v>
       </c>
-      <c r="K112" s="7">
+      <c r="K112" s="5">
         <v>0</v>
       </c>
       <c r="M112">
@@ -10246,32 +10246,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>32</v>
       </c>
-      <c r="D113" s="7" t="s">
+      <c r="D113" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="E113" s="7">
+      <c r="E113" s="5">
         <v>2</v>
       </c>
-      <c r="F113" s="7">
+      <c r="F113" s="5">
         <v>2</v>
       </c>
-      <c r="G113" s="7">
-        <v>0</v>
-      </c>
-      <c r="H113" s="7">
-        <v>0</v>
-      </c>
-      <c r="I113" s="7">
-        <v>0</v>
-      </c>
-      <c r="J113" s="7">
-        <v>0</v>
-      </c>
-      <c r="K113" s="7">
+      <c r="G113" s="5">
+        <v>0</v>
+      </c>
+      <c r="H113" s="5">
+        <v>0</v>
+      </c>
+      <c r="I113" s="5">
+        <v>0</v>
+      </c>
+      <c r="J113" s="5">
+        <v>0</v>
+      </c>
+      <c r="K113" s="5">
         <v>0</v>
       </c>
       <c r="M113">
@@ -10283,32 +10283,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>32</v>
       </c>
-      <c r="D114" s="7" t="s">
+      <c r="D114" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="E114" s="7">
+      <c r="E114" s="5">
         <v>11</v>
       </c>
-      <c r="F114" s="7">
+      <c r="F114" s="5">
         <v>11</v>
       </c>
-      <c r="G114" s="7">
-        <v>0</v>
-      </c>
-      <c r="H114" s="7">
-        <v>0</v>
-      </c>
-      <c r="I114" s="7">
-        <v>0</v>
-      </c>
-      <c r="J114" s="7">
-        <v>0</v>
-      </c>
-      <c r="K114" s="7">
+      <c r="G114" s="5">
+        <v>0</v>
+      </c>
+      <c r="H114" s="5">
+        <v>0</v>
+      </c>
+      <c r="I114" s="5">
+        <v>0</v>
+      </c>
+      <c r="J114" s="5">
+        <v>0</v>
+      </c>
+      <c r="K114" s="5">
         <v>0</v>
       </c>
       <c r="M114">
@@ -10320,7 +10320,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>18</v>
       </c>
@@ -10360,32 +10360,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>18</v>
       </c>
-      <c r="D116" s="7" t="s">
+      <c r="D116" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E116" s="7">
-        <v>1</v>
-      </c>
-      <c r="F116" s="7">
-        <v>0</v>
-      </c>
-      <c r="G116" s="7">
-        <v>1</v>
-      </c>
-      <c r="H116" s="7">
-        <v>0</v>
-      </c>
-      <c r="I116" s="7">
-        <v>0</v>
-      </c>
-      <c r="J116" s="7">
-        <v>0</v>
-      </c>
-      <c r="K116" s="7">
+      <c r="E116" s="5">
+        <v>1</v>
+      </c>
+      <c r="F116" s="5">
+        <v>0</v>
+      </c>
+      <c r="G116" s="5">
+        <v>1</v>
+      </c>
+      <c r="H116" s="5">
+        <v>0</v>
+      </c>
+      <c r="I116" s="5">
+        <v>0</v>
+      </c>
+      <c r="J116" s="5">
+        <v>0</v>
+      </c>
+      <c r="K116" s="5">
         <v>0</v>
       </c>
       <c r="M116">
@@ -10397,32 +10397,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>18</v>
       </c>
-      <c r="D117" s="7" t="s">
+      <c r="D117" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="E117" s="7">
-        <v>1</v>
-      </c>
-      <c r="F117" s="7">
-        <v>0</v>
-      </c>
-      <c r="G117" s="7">
-        <v>0</v>
-      </c>
-      <c r="H117" s="7">
-        <v>0</v>
-      </c>
-      <c r="I117" s="7">
-        <v>0</v>
-      </c>
-      <c r="J117" s="7">
-        <v>1</v>
-      </c>
-      <c r="K117" s="7">
+      <c r="E117" s="5">
+        <v>1</v>
+      </c>
+      <c r="F117" s="5">
+        <v>0</v>
+      </c>
+      <c r="G117" s="5">
+        <v>0</v>
+      </c>
+      <c r="H117" s="5">
+        <v>0</v>
+      </c>
+      <c r="I117" s="5">
+        <v>0</v>
+      </c>
+      <c r="J117" s="5">
+        <v>1</v>
+      </c>
+      <c r="K117" s="5">
         <v>0</v>
       </c>
       <c r="M117">
@@ -10434,32 +10434,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>18</v>
       </c>
-      <c r="D118" s="7" t="s">
+      <c r="D118" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E118" s="7">
-        <v>1</v>
-      </c>
-      <c r="F118" s="7">
-        <v>0</v>
-      </c>
-      <c r="G118" s="7">
-        <v>0</v>
-      </c>
-      <c r="H118" s="7">
-        <v>0</v>
-      </c>
-      <c r="I118" s="7">
-        <v>1</v>
-      </c>
-      <c r="J118" s="7">
-        <v>0</v>
-      </c>
-      <c r="K118" s="7">
+      <c r="E118" s="5">
+        <v>1</v>
+      </c>
+      <c r="F118" s="5">
+        <v>0</v>
+      </c>
+      <c r="G118" s="5">
+        <v>0</v>
+      </c>
+      <c r="H118" s="5">
+        <v>0</v>
+      </c>
+      <c r="I118" s="5">
+        <v>1</v>
+      </c>
+      <c r="J118" s="5">
+        <v>0</v>
+      </c>
+      <c r="K118" s="5">
         <v>0</v>
       </c>
       <c r="M118">
@@ -10471,32 +10471,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>18</v>
       </c>
-      <c r="D119" s="7" t="s">
+      <c r="D119" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E119" s="7">
+      <c r="E119" s="5">
         <v>17</v>
       </c>
-      <c r="F119" s="7">
-        <v>0</v>
-      </c>
-      <c r="G119" s="7">
+      <c r="F119" s="5">
+        <v>0</v>
+      </c>
+      <c r="G119" s="5">
         <v>7</v>
       </c>
-      <c r="H119" s="7">
-        <v>0</v>
-      </c>
-      <c r="I119" s="7">
+      <c r="H119" s="5">
+        <v>0</v>
+      </c>
+      <c r="I119" s="5">
         <v>7</v>
       </c>
-      <c r="J119" s="7">
-        <v>1</v>
-      </c>
-      <c r="K119" s="7">
+      <c r="J119" s="5">
+        <v>1</v>
+      </c>
+      <c r="K119" s="5">
         <v>2</v>
       </c>
       <c r="M119">
@@ -10508,32 +10508,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>18</v>
       </c>
-      <c r="D120" s="7" t="s">
+      <c r="D120" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E120" s="7">
+      <c r="E120" s="5">
         <v>2</v>
       </c>
-      <c r="F120" s="7">
-        <v>0</v>
-      </c>
-      <c r="G120" s="7">
-        <v>0</v>
-      </c>
-      <c r="H120" s="7">
-        <v>0</v>
-      </c>
-      <c r="I120" s="7">
-        <v>1</v>
-      </c>
-      <c r="J120" s="7">
-        <v>0</v>
-      </c>
-      <c r="K120" s="7">
+      <c r="F120" s="5">
+        <v>0</v>
+      </c>
+      <c r="G120" s="5">
+        <v>0</v>
+      </c>
+      <c r="H120" s="5">
+        <v>0</v>
+      </c>
+      <c r="I120" s="5">
+        <v>1</v>
+      </c>
+      <c r="J120" s="5">
+        <v>0</v>
+      </c>
+      <c r="K120" s="5">
         <v>1</v>
       </c>
       <c r="M120">
@@ -10545,32 +10545,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>18</v>
       </c>
-      <c r="D121" s="7" t="s">
+      <c r="D121" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E121" s="7">
+      <c r="E121" s="5">
         <v>3</v>
       </c>
-      <c r="F121" s="7">
-        <v>0</v>
-      </c>
-      <c r="G121" s="7">
-        <v>0</v>
-      </c>
-      <c r="H121" s="7">
+      <c r="F121" s="5">
+        <v>0</v>
+      </c>
+      <c r="G121" s="5">
+        <v>0</v>
+      </c>
+      <c r="H121" s="5">
         <v>2</v>
       </c>
-      <c r="I121" s="7">
-        <v>1</v>
-      </c>
-      <c r="J121" s="7">
-        <v>0</v>
-      </c>
-      <c r="K121" s="7">
+      <c r="I121" s="5">
+        <v>1</v>
+      </c>
+      <c r="J121" s="5">
+        <v>0</v>
+      </c>
+      <c r="K121" s="5">
         <v>0</v>
       </c>
       <c r="M121">
@@ -10582,32 +10582,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>18</v>
       </c>
-      <c r="D122" s="7" t="s">
+      <c r="D122" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E122" s="7">
+      <c r="E122" s="5">
         <v>25</v>
       </c>
-      <c r="F122" s="7">
-        <v>1</v>
-      </c>
-      <c r="G122" s="7">
+      <c r="F122" s="5">
+        <v>1</v>
+      </c>
+      <c r="G122" s="5">
         <v>11</v>
       </c>
-      <c r="H122" s="7">
+      <c r="H122" s="5">
         <v>4</v>
       </c>
-      <c r="I122" s="7">
+      <c r="I122" s="5">
         <v>4</v>
       </c>
-      <c r="J122" s="7">
+      <c r="J122" s="5">
         <v>3</v>
       </c>
-      <c r="K122" s="7">
+      <c r="K122" s="5">
         <v>2</v>
       </c>
       <c r="M122">
@@ -10619,32 +10619,32 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>18</v>
       </c>
-      <c r="D123" s="7" t="s">
+      <c r="D123" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="E123" s="7">
+      <c r="E123" s="5">
         <v>4</v>
       </c>
-      <c r="F123" s="7">
-        <v>0</v>
-      </c>
-      <c r="G123" s="7">
+      <c r="F123" s="5">
+        <v>0</v>
+      </c>
+      <c r="G123" s="5">
         <v>2</v>
       </c>
-      <c r="H123" s="7">
-        <v>0</v>
-      </c>
-      <c r="I123" s="7">
+      <c r="H123" s="5">
+        <v>0</v>
+      </c>
+      <c r="I123" s="5">
         <v>2</v>
       </c>
-      <c r="J123" s="7">
-        <v>0</v>
-      </c>
-      <c r="K123" s="7">
+      <c r="J123" s="5">
+        <v>0</v>
+      </c>
+      <c r="K123" s="5">
         <v>0</v>
       </c>
       <c r="M123">
@@ -10656,32 +10656,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>18</v>
       </c>
-      <c r="D124" s="7" t="s">
+      <c r="D124" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="E124" s="7">
+      <c r="E124" s="5">
         <v>2</v>
       </c>
-      <c r="F124" s="7">
-        <v>0</v>
-      </c>
-      <c r="G124" s="7">
-        <v>0</v>
-      </c>
-      <c r="H124" s="7">
-        <v>0</v>
-      </c>
-      <c r="I124" s="7">
+      <c r="F124" s="5">
+        <v>0</v>
+      </c>
+      <c r="G124" s="5">
+        <v>0</v>
+      </c>
+      <c r="H124" s="5">
+        <v>0</v>
+      </c>
+      <c r="I124" s="5">
         <v>2</v>
       </c>
-      <c r="J124" s="7">
-        <v>0</v>
-      </c>
-      <c r="K124" s="7">
+      <c r="J124" s="5">
+        <v>0</v>
+      </c>
+      <c r="K124" s="5">
         <v>0</v>
       </c>
       <c r="M124">
@@ -10692,8 +10692,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P124">
+        <f>SUM(F115:G124)</f>
+        <v>24</v>
+      </c>
+      <c r="Q124">
+        <f>SUM(H115:I124)</f>
+        <v>34</v>
+      </c>
+      <c r="R124">
+        <f>SUM(J115:K124)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>166</v>
       </c>
@@ -10733,32 +10745,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>166</v>
       </c>
-      <c r="D126" s="7" t="s">
+      <c r="D126" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E126" s="7">
+      <c r="E126" s="5">
         <v>2</v>
       </c>
-      <c r="F126" s="7">
-        <v>1</v>
-      </c>
-      <c r="G126" s="7">
-        <v>0</v>
-      </c>
-      <c r="H126" s="7">
-        <v>1</v>
-      </c>
-      <c r="I126" s="7">
-        <v>0</v>
-      </c>
-      <c r="J126" s="7">
-        <v>0</v>
-      </c>
-      <c r="K126" s="7">
+      <c r="F126" s="5">
+        <v>1</v>
+      </c>
+      <c r="G126" s="5">
+        <v>0</v>
+      </c>
+      <c r="H126" s="5">
+        <v>1</v>
+      </c>
+      <c r="I126" s="5">
+        <v>0</v>
+      </c>
+      <c r="J126" s="5">
+        <v>0</v>
+      </c>
+      <c r="K126" s="5">
         <v>0</v>
       </c>
       <c r="M126">
@@ -10769,33 +10781,37 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R126">
+        <f>SUM(E115:E124)</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>166</v>
       </c>
-      <c r="D127" s="7" t="s">
+      <c r="D127" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E127" s="7">
-        <v>1</v>
-      </c>
-      <c r="F127" s="7">
-        <v>0</v>
-      </c>
-      <c r="G127" s="7">
-        <v>0</v>
-      </c>
-      <c r="H127" s="7">
-        <v>0</v>
-      </c>
-      <c r="I127" s="7">
-        <v>0</v>
-      </c>
-      <c r="J127" s="7">
-        <v>1</v>
-      </c>
-      <c r="K127" s="7">
+      <c r="E127" s="5">
+        <v>1</v>
+      </c>
+      <c r="F127" s="5">
+        <v>0</v>
+      </c>
+      <c r="G127" s="5">
+        <v>0</v>
+      </c>
+      <c r="H127" s="5">
+        <v>0</v>
+      </c>
+      <c r="I127" s="5">
+        <v>0</v>
+      </c>
+      <c r="J127" s="5">
+        <v>1</v>
+      </c>
+      <c r="K127" s="5">
         <v>0</v>
       </c>
       <c r="M127">
@@ -10807,32 +10823,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>166</v>
       </c>
-      <c r="D128" s="7" t="s">
+      <c r="D128" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="E128" s="7">
+      <c r="E128" s="5">
         <v>3</v>
       </c>
-      <c r="F128" s="7">
-        <v>0</v>
-      </c>
-      <c r="G128" s="7">
-        <v>0</v>
-      </c>
-      <c r="H128" s="7">
-        <v>1</v>
-      </c>
-      <c r="I128" s="7">
-        <v>0</v>
-      </c>
-      <c r="J128" s="7">
-        <v>0</v>
-      </c>
-      <c r="K128" s="7">
+      <c r="F128" s="5">
+        <v>0</v>
+      </c>
+      <c r="G128" s="5">
+        <v>0</v>
+      </c>
+      <c r="H128" s="5">
+        <v>1</v>
+      </c>
+      <c r="I128" s="5">
+        <v>0</v>
+      </c>
+      <c r="J128" s="5">
+        <v>0</v>
+      </c>
+      <c r="K128" s="5">
         <v>2</v>
       </c>
       <c r="M128">
@@ -10928,28 +10944,28 @@
       <c r="A131" t="s">
         <v>25</v>
       </c>
-      <c r="D131" s="7" t="s">
+      <c r="D131" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E131" s="7">
+      <c r="E131" s="5">
         <v>20</v>
       </c>
-      <c r="F131" s="7">
-        <v>0</v>
-      </c>
-      <c r="G131" s="7">
+      <c r="F131" s="5">
+        <v>0</v>
+      </c>
+      <c r="G131" s="5">
         <v>20</v>
       </c>
-      <c r="H131" s="7">
-        <v>0</v>
-      </c>
-      <c r="I131" s="7">
-        <v>0</v>
-      </c>
-      <c r="J131" s="7">
-        <v>0</v>
-      </c>
-      <c r="K131" s="7">
+      <c r="H131" s="5">
+        <v>0</v>
+      </c>
+      <c r="I131" s="5">
+        <v>0</v>
+      </c>
+      <c r="J131" s="5">
+        <v>0</v>
+      </c>
+      <c r="K131" s="5">
         <v>0</v>
       </c>
       <c r="M131">
@@ -10965,28 +10981,28 @@
       <c r="A132" t="s">
         <v>25</v>
       </c>
-      <c r="D132" s="7" t="s">
+      <c r="D132" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E132" s="7">
+      <c r="E132" s="5">
         <v>11</v>
       </c>
-      <c r="F132" s="7">
-        <v>0</v>
-      </c>
-      <c r="G132" s="7">
-        <v>0</v>
-      </c>
-      <c r="H132" s="7">
-        <v>0</v>
-      </c>
-      <c r="I132" s="7">
+      <c r="F132" s="5">
+        <v>0</v>
+      </c>
+      <c r="G132" s="5">
+        <v>0</v>
+      </c>
+      <c r="H132" s="5">
+        <v>0</v>
+      </c>
+      <c r="I132" s="5">
         <v>6</v>
       </c>
-      <c r="J132" s="7">
-        <v>0</v>
-      </c>
-      <c r="K132" s="7">
+      <c r="J132" s="5">
+        <v>0</v>
+      </c>
+      <c r="K132" s="5">
         <v>5</v>
       </c>
       <c r="M132">
@@ -11002,28 +11018,28 @@
       <c r="A133" t="s">
         <v>25</v>
       </c>
-      <c r="D133" s="7" t="s">
+      <c r="D133" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E133" s="7">
+      <c r="E133" s="5">
         <v>6</v>
       </c>
-      <c r="F133" s="7">
-        <v>0</v>
-      </c>
-      <c r="G133" s="7">
-        <v>0</v>
-      </c>
-      <c r="H133" s="7">
-        <v>0</v>
-      </c>
-      <c r="I133" s="7">
+      <c r="F133" s="5">
+        <v>0</v>
+      </c>
+      <c r="G133" s="5">
+        <v>0</v>
+      </c>
+      <c r="H133" s="5">
+        <v>0</v>
+      </c>
+      <c r="I133" s="5">
         <v>6</v>
       </c>
-      <c r="J133" s="7">
-        <v>0</v>
-      </c>
-      <c r="K133" s="7">
+      <c r="J133" s="5">
+        <v>0</v>
+      </c>
+      <c r="K133" s="5">
         <v>0</v>
       </c>
       <c r="M133">
@@ -11079,28 +11095,28 @@
       <c r="A135" t="s">
         <v>172</v>
       </c>
-      <c r="D135" s="7" t="s">
+      <c r="D135" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="E135" s="7">
+      <c r="E135" s="5">
         <v>3</v>
       </c>
-      <c r="F135" s="7">
+      <c r="F135" s="5">
         <v>3</v>
       </c>
-      <c r="G135" s="7">
-        <v>0</v>
-      </c>
-      <c r="H135" s="7">
-        <v>0</v>
-      </c>
-      <c r="I135" s="7">
-        <v>0</v>
-      </c>
-      <c r="J135" s="7">
-        <v>0</v>
-      </c>
-      <c r="K135" s="7">
+      <c r="G135" s="5">
+        <v>0</v>
+      </c>
+      <c r="H135" s="5">
+        <v>0</v>
+      </c>
+      <c r="I135" s="5">
+        <v>0</v>
+      </c>
+      <c r="J135" s="5">
+        <v>0</v>
+      </c>
+      <c r="K135" s="5">
         <v>0</v>
       </c>
       <c r="M135">
@@ -11116,28 +11132,28 @@
       <c r="A136" t="s">
         <v>172</v>
       </c>
-      <c r="D136" s="7" t="s">
+      <c r="D136" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="E136" s="7">
-        <v>1</v>
-      </c>
-      <c r="F136" s="7">
-        <v>0</v>
-      </c>
-      <c r="G136" s="7">
-        <v>0</v>
-      </c>
-      <c r="H136" s="7">
-        <v>0</v>
-      </c>
-      <c r="I136" s="7">
-        <v>0</v>
-      </c>
-      <c r="J136" s="7">
-        <v>1</v>
-      </c>
-      <c r="K136" s="7">
+      <c r="E136" s="5">
+        <v>1</v>
+      </c>
+      <c r="F136" s="5">
+        <v>0</v>
+      </c>
+      <c r="G136" s="5">
+        <v>0</v>
+      </c>
+      <c r="H136" s="5">
+        <v>0</v>
+      </c>
+      <c r="I136" s="5">
+        <v>0</v>
+      </c>
+      <c r="J136" s="5">
+        <v>1</v>
+      </c>
+      <c r="K136" s="5">
         <v>0</v>
       </c>
       <c r="M136">
@@ -11153,29 +11169,29 @@
       <c r="A137" t="s">
         <v>172</v>
       </c>
-      <c r="C137" s="6"/>
-      <c r="D137" s="6" t="s">
+      <c r="C137" s="4"/>
+      <c r="D137" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="E137" s="6">
+      <c r="E137" s="4">
         <v>10</v>
       </c>
-      <c r="F137" s="6">
-        <v>0</v>
-      </c>
-      <c r="G137" s="6">
-        <v>0</v>
-      </c>
-      <c r="H137" s="6">
+      <c r="F137" s="4">
+        <v>0</v>
+      </c>
+      <c r="G137" s="4">
+        <v>0</v>
+      </c>
+      <c r="H137" s="4">
         <v>6</v>
       </c>
-      <c r="I137" s="6">
-        <v>0</v>
-      </c>
-      <c r="J137" s="6">
+      <c r="I137" s="4">
+        <v>0</v>
+      </c>
+      <c r="J137" s="4">
         <v>4</v>
       </c>
-      <c r="K137" s="6">
+      <c r="K137" s="4">
         <v>0</v>
       </c>
       <c r="M137">
